--- a/Documentacion/Primer Trimestre/Historias de usuario.xlsx
+++ b/Documentacion/Primer Trimestre/Historias de usuario.xlsx
@@ -5,25 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adminsena\Documents\97r8o9p\grh_solutions\Documentacion\Primer Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adminsena\Desktop\bodrio\grh_solutions\Documentacion\Primer Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98C4EF5-C46E-4BB6-BF85-9878FE24D180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEE357B-7A73-4D45-93D3-00099C5D67B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$2:$J$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$A$2:$J$76</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="361">
   <si>
     <t>Enunciado de la historia</t>
   </si>
@@ -655,9 +655,6 @@
     <t>Cuando el usuario le da click al boton de 'Guardar Grupo', este grupo se guardara en la base de datos para mas tarde ser consultado.</t>
   </si>
   <si>
-    <t>Comunicados Internos</t>
-  </si>
-  <si>
     <t>Ver los comunicados actuales.</t>
   </si>
   <si>
@@ -772,9 +769,6 @@
     <t>Recursos humanos/Jefe de area</t>
   </si>
   <si>
-    <t>Comunicados internos</t>
-  </si>
-  <si>
     <t>Crear comunicado.</t>
   </si>
   <si>
@@ -835,9 +829,6 @@
     <t>Con la finalidad de que el usuario este al tanto de sus horarios</t>
   </si>
   <si>
-    <t>Generar una incapacidad.</t>
-  </si>
-  <si>
     <t>Con la finalidad de que el usuario pueda reportar a recursos humanos alguna irregularidad de algun empleado</t>
   </si>
   <si>
@@ -853,10 +844,6 @@
     <t>Se guardara su reporte en el modulo de peticiones/solicitudes, guardandola dentro de la categoria "Irregularidades de empleado", y de ahi empezaria el flujo de peticiones/solicitudes</t>
   </si>
   <si>
-    <t xml:space="preserve">Información de Empleados  
-</t>
-  </si>
-  <si>
     <t>Visualizar empleado.</t>
   </si>
   <si>
@@ -1073,10 +1060,52 @@
     <t>Se actualizara la informacion desactivando al usuario.</t>
   </si>
   <si>
-    <t xml:space="preserve">Información de Empleados </t>
-  </si>
-  <si>
     <t>Información de Empleados</t>
+  </si>
+  <si>
+    <t>Jefe de area/RH</t>
+  </si>
+  <si>
+    <t>Asignar peticion/solicitud</t>
+  </si>
+  <si>
+    <t>Con la finalida de asignar a un empleado que se encargue de la solicitud</t>
+  </si>
+  <si>
+    <t>Asignar usuario</t>
+  </si>
+  <si>
+    <t>El usuario busca dentro de una lista de empleados, solo por su nombre</t>
+  </si>
+  <si>
+    <t>Al momento de dar click al input select, darle una observacion y un titulo</t>
+  </si>
+  <si>
+    <t>La registra a la base de datos la asignacion, y notificara por correo al usuario asignado, peticionante y sus mensionados.</t>
+  </si>
+  <si>
+    <t>Crear hoja de vida</t>
+  </si>
+  <si>
+    <t>Crear/Llenar hoja de vida</t>
+  </si>
+  <si>
+    <t>En caso de que el postulado no tenga ninguna hoja de vida aun creada</t>
+  </si>
+  <si>
+    <t>Si el usuario desea aplicar a alguna vacante, este va a necesitar una hoja de vida registrada, por lo tanto, debera llenarla para nosotros poderla almasenar</t>
+  </si>
+  <si>
+    <t>Al llenar toda la informacion en nuestro formulario</t>
+  </si>
+  <si>
+    <t>Se guardara la hoja de vida como un anexo al perfil.</t>
+  </si>
+  <si>
+    <t>Recursos humanos/Jefe de area/Admin</t>
+  </si>
+  <si>
+    <t>Generar un incumplimiento del horario</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1150,21 +1179,6 @@
         <color rgb="FFE1E3E1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1183,13 +1197,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,23 +1222,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1451,10 +1465,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1016"/>
+  <dimension ref="A1:Z838"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1473,19 +1487,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="13" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1504,31 +1518,31 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -1567,19 +1581,19 @@
       <c r="E3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="13">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="13" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="2"/>
@@ -1600,24 +1614,24 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="4">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="13">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="2"/>
@@ -1637,35 +1651,35 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="13">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="13" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="2"/>
@@ -1686,24 +1700,24 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="4">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="13">
         <v>2</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="13" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="2"/>
@@ -1724,24 +1738,24 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="4">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="13">
         <v>3</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="2"/>
@@ -1762,34 +1776,34 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="13">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="13">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="K8" s="2"/>
@@ -1810,34 +1824,34 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="13">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="13" t="s">
         <v>52</v>
       </c>
       <c r="K9" s="2"/>
@@ -1864,28 +1878,28 @@
       <c r="B10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="13">
         <v>1</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="13" t="s">
         <v>59</v>
       </c>
       <c r="K10" s="2"/>
@@ -1905,25 +1919,25 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:26" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="4">
+      <c r="C11" s="19"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="13">
         <v>2</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="13" t="s">
         <v>63</v>
       </c>
       <c r="K11" s="2"/>
@@ -1950,28 +1964,28 @@
       <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="13">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="13" t="s">
         <v>69</v>
       </c>
       <c r="K12" s="2"/>
@@ -1992,24 +2006,24 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="13">
         <v>2</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="13" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="2"/>
@@ -2045,19 +2059,19 @@
       <c r="E14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="13">
         <v>1</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="13" t="s">
         <v>79</v>
       </c>
       <c r="K14" s="2"/>
@@ -2078,24 +2092,24 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="13">
         <v>2</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="13" t="s">
         <v>83</v>
       </c>
       <c r="K15" s="2"/>
@@ -2116,24 +2130,24 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="4">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="13">
         <v>3</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="13" t="s">
         <v>87</v>
       </c>
       <c r="K16" s="2"/>
@@ -2154,24 +2168,24 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="4">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="13">
         <v>4</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="13" t="s">
         <v>91</v>
       </c>
       <c r="K17" s="2"/>
@@ -2192,24 +2206,24 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="13">
         <v>5</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="13" t="s">
         <v>95</v>
       </c>
       <c r="K18" s="2"/>
@@ -2230,34 +2244,34 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="13">
         <v>8</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="13">
         <v>1</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="13" t="s">
         <v>101</v>
       </c>
       <c r="K19" s="2"/>
@@ -2293,13 +2307,13 @@
       <c r="E20" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="13">
         <v>1</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="13" t="s">
         <v>105</v>
       </c>
       <c r="I20" s="15" t="s">
@@ -2326,22 +2340,22 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="4">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="13">
         <v>2</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2364,7 +2378,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>110</v>
+        <v>346</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>39</v>
@@ -2375,19 +2389,19 @@
       <c r="E22" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="13">
         <v>1</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="13" t="s">
         <v>116</v>
       </c>
       <c r="K22" s="2"/>
@@ -2408,24 +2422,24 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="4">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="13">
         <v>2</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="13" t="s">
         <v>120</v>
       </c>
       <c r="K23" s="2"/>
@@ -2446,34 +2460,34 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="13">
         <v>11</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="13">
         <v>1</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="13" t="s">
         <v>52</v>
       </c>
       <c r="K24" s="2"/>
@@ -2493,84 +2507,84 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+    <row r="25" spans="1:26" s="12" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
         <v>12</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+    </row>
+    <row r="26" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>13</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="13">
         <v>1</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G26" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H26" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J26" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>13</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -2589,36 +2603,36 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+    <row r="27" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
         <v>14</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="B27" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="13">
         <v>1</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>19</v>
+      <c r="G27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -2638,25 +2652,35 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="4">
-        <v>2</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>23</v>
+      <c r="A28" s="15">
+        <v>15</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -2676,26 +2700,26 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>15</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="13">
+        <v>2</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2714,36 +2738,26 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+      <c r="A30" s="13">
         <v>16</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="D30" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -2761,74 +2775,84 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="4">
-        <v>2</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-    </row>
-    <row r="32" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" s="12" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>17</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+    </row>
+    <row r="32" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>128</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" s="4">
+        <v>137</v>
+      </c>
+      <c r="F32" s="13">
         <v>1</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>151</v>
+      <c r="G32" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -2847,26 +2871,26 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="9">
+    <row r="33" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="13">
         <v>2</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>155</v>
+      <c r="G33" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -2885,26 +2909,36 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="4">
-        <v>3</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>159</v>
+    <row r="34" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>19</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -2923,26 +2957,26 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="4">
-        <v>4</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>163</v>
+    <row r="35" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="7">
+        <v>2</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -2962,25 +2996,25 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="4">
-        <v>5</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>167</v>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="13">
+        <v>3</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2999,26 +3033,26 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="4">
-        <v>6</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>171</v>
+    <row r="37" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="13">
+        <v>4</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -3037,36 +3071,26 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>18</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>179</v>
+    <row r="38" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="13">
+        <v>5</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -3085,36 +3109,26 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
-        <v>19</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>183</v>
+    <row r="39" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="13">
+        <v>6</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -3133,26 +3147,36 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="4">
-        <v>2</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>187</v>
+    <row r="40" spans="1:26" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
+        <v>20</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="13">
+        <v>1</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -3172,25 +3196,35 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="4">
-        <v>3</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>191</v>
+      <c r="A41" s="15">
+        <v>21</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="13">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -3209,36 +3243,26 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>20</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>199</v>
+    <row r="42" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="13">
+        <v>2</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -3257,36 +3281,26 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="102" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
-        <v>21</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>205</v>
+    <row r="43" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="13">
+        <v>3</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -3305,26 +3319,36 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="102" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="4">
-        <v>2</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>209</v>
+    <row r="44" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>22</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="13">
+        <v>1</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -3343,36 +3367,36 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="F45" s="4">
+        <v>201</v>
+      </c>
+      <c r="F45" s="13">
         <v>1</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>216</v>
+      <c r="G45" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -3391,26 +3415,26 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="4">
+    <row r="46" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="13">
         <v>2</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>220</v>
+      <c r="G46" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>209</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -3429,26 +3453,36 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="4">
-        <v>3</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>224</v>
+    <row r="47" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>24</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" s="13">
+        <v>1</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -3467,36 +3501,26 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
-        <v>23</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="F48" s="4">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="J48" s="4" t="s">
+    <row r="48" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="13">
+        <v>2</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>216</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -3515,26 +3539,26 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="4">
-        <v>2</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J49" s="4" t="s">
+    <row r="49" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="13">
+        <v>3</v>
+      </c>
+      <c r="G49" s="13" t="s">
         <v>220</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -3553,26 +3577,36 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="4">
-        <v>3</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>229</v>
+    <row r="50" spans="1:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15">
+        <v>25</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" s="13">
+        <v>1</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -3591,26 +3625,26 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="4">
-        <v>4</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>233</v>
+    <row r="51" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="13">
+        <v>2</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -3629,36 +3663,26 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
-        <v>24</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>239</v>
+    <row r="52" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="13">
+        <v>3</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -3677,26 +3701,26 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="4">
-        <v>2</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>243</v>
+    <row r="53" spans="1:26" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="13">
+        <v>4</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -3715,26 +3739,36 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="4">
-        <v>3</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>247</v>
+    <row r="54" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="15">
+        <v>26</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F54" s="13">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -3753,36 +3787,26 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>25</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F55" s="4">
-        <v>1</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>255</v>
+    <row r="55" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="13">
+        <v>2</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -3801,36 +3825,26 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>26</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>261</v>
+    <row r="56" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="13">
+        <v>3</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -3849,36 +3863,36 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+    <row r="57" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
         <v>27</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F57" s="4">
+      <c r="B57" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F57" s="13">
         <v>1</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>267</v>
+      <c r="G57" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>253</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -3897,36 +3911,36 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+    <row r="58" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
         <v>28</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="B58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F58" s="4">
+      <c r="D58" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F58" s="13">
         <v>1</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>199</v>
+      <c r="G58" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -3945,36 +3959,36 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="12">
+    <row r="59" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
         <v>29</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="B59" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F59" s="4">
+      <c r="D59" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="13">
         <v>1</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>275</v>
+      <c r="G59" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -3993,36 +4007,36 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="102" x14ac:dyDescent="0.2">
-      <c r="A60" s="15">
+    <row r="60" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
         <v>30</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="F60" s="4">
+      <c r="B60" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" s="13">
         <v>1</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>282</v>
+      <c r="G60" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>199</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -4041,26 +4055,36 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="4">
-        <v>2</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>286</v>
+    <row r="61" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="10">
+        <v>31</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F61" s="13">
+        <v>1</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>272</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -4079,36 +4103,36 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C62" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F62" s="13">
+        <v>1</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="H62" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D62" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="F62" s="4">
-        <v>1</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>292</v>
+      <c r="I62" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -4127,26 +4151,26 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="4">
+    <row r="63" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="13">
         <v>2</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>296</v>
+      <c r="G63" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -4165,36 +4189,36 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A64" s="15">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="F64" s="4">
+        <v>284</v>
+      </c>
+      <c r="F64" s="13">
         <v>1</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>303</v>
+      <c r="G64" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>288</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -4213,26 +4237,26 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="4">
+    <row r="65" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="13">
         <v>2</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>307</v>
+      <c r="G65" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>292</v>
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -4251,36 +4275,36 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B66" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F66" s="13">
+        <v>1</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="H66" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="F66" s="4">
-        <v>1</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>314</v>
+      <c r="I66" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>299</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -4299,26 +4323,26 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="4">
+    <row r="67" spans="1:26" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="13">
         <v>2</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>318</v>
+      <c r="G67" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -4338,25 +4362,35 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="4">
-        <v>3</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>322</v>
+      <c r="A68" s="15">
+        <v>35</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F68" s="13">
+        <v>1</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -4376,35 +4410,25 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15">
-        <v>34</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>328</v>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="13">
+        <v>2</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>314</v>
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -4424,25 +4448,25 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="4">
-        <v>2</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>332</v>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="13">
+        <v>3</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>318</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -4462,25 +4486,35 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="4">
-        <v>3</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="J71" s="4" t="s">
-        <v>336</v>
+      <c r="A71" s="15">
+        <v>36</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="F71" s="13">
+        <v>1</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -4500,25 +4534,25 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="4">
-        <v>4</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>340</v>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="13">
+        <v>2</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -4538,25 +4572,25 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="4">
-        <v>5</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>344</v>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="13">
+        <v>3</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>332</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -4576,25 +4610,25 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="4">
-        <v>6</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>348</v>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="13">
+        <v>4</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>336</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -4614,16 +4648,26 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="13">
+        <v>5</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>340</v>
+      </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -4642,16 +4686,26 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="13">
+        <v>6</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>344</v>
+      </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -4669,17 +4723,17 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+    <row r="77" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -26005,5081 +26059,9 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A839" s="2"/>
-      <c r="B839" s="2"/>
-      <c r="C839" s="2"/>
-      <c r="D839" s="2"/>
-      <c r="E839" s="2"/>
-      <c r="F839" s="2"/>
-      <c r="G839" s="2"/>
-      <c r="H839" s="2"/>
-      <c r="I839" s="2"/>
-      <c r="J839" s="2"/>
-      <c r="K839" s="2"/>
-      <c r="L839" s="2"/>
-      <c r="M839" s="2"/>
-      <c r="N839" s="2"/>
-      <c r="O839" s="2"/>
-      <c r="P839" s="2"/>
-      <c r="Q839" s="2"/>
-      <c r="R839" s="2"/>
-      <c r="S839" s="2"/>
-      <c r="T839" s="2"/>
-      <c r="U839" s="2"/>
-      <c r="V839" s="2"/>
-      <c r="W839" s="2"/>
-      <c r="X839" s="2"/>
-      <c r="Y839" s="2"/>
-      <c r="Z839" s="2"/>
-    </row>
-    <row r="840" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A840" s="2"/>
-      <c r="B840" s="2"/>
-      <c r="C840" s="2"/>
-      <c r="D840" s="2"/>
-      <c r="E840" s="2"/>
-      <c r="F840" s="2"/>
-      <c r="G840" s="2"/>
-      <c r="H840" s="2"/>
-      <c r="I840" s="2"/>
-      <c r="J840" s="2"/>
-      <c r="K840" s="2"/>
-      <c r="L840" s="2"/>
-      <c r="M840" s="2"/>
-      <c r="N840" s="2"/>
-      <c r="O840" s="2"/>
-      <c r="P840" s="2"/>
-      <c r="Q840" s="2"/>
-      <c r="R840" s="2"/>
-      <c r="S840" s="2"/>
-      <c r="T840" s="2"/>
-      <c r="U840" s="2"/>
-      <c r="V840" s="2"/>
-      <c r="W840" s="2"/>
-      <c r="X840" s="2"/>
-      <c r="Y840" s="2"/>
-      <c r="Z840" s="2"/>
-    </row>
-    <row r="841" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A841" s="2"/>
-      <c r="B841" s="2"/>
-      <c r="C841" s="2"/>
-      <c r="D841" s="2"/>
-      <c r="E841" s="2"/>
-      <c r="F841" s="2"/>
-      <c r="G841" s="2"/>
-      <c r="H841" s="2"/>
-      <c r="I841" s="2"/>
-      <c r="J841" s="2"/>
-      <c r="K841" s="2"/>
-      <c r="L841" s="2"/>
-      <c r="M841" s="2"/>
-      <c r="N841" s="2"/>
-      <c r="O841" s="2"/>
-      <c r="P841" s="2"/>
-      <c r="Q841" s="2"/>
-      <c r="R841" s="2"/>
-      <c r="S841" s="2"/>
-      <c r="T841" s="2"/>
-      <c r="U841" s="2"/>
-      <c r="V841" s="2"/>
-      <c r="W841" s="2"/>
-      <c r="X841" s="2"/>
-      <c r="Y841" s="2"/>
-      <c r="Z841" s="2"/>
-    </row>
-    <row r="842" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A842" s="2"/>
-      <c r="B842" s="2"/>
-      <c r="C842" s="2"/>
-      <c r="D842" s="2"/>
-      <c r="E842" s="2"/>
-      <c r="F842" s="2"/>
-      <c r="G842" s="2"/>
-      <c r="H842" s="2"/>
-      <c r="I842" s="2"/>
-      <c r="J842" s="2"/>
-      <c r="K842" s="2"/>
-      <c r="L842" s="2"/>
-      <c r="M842" s="2"/>
-      <c r="N842" s="2"/>
-      <c r="O842" s="2"/>
-      <c r="P842" s="2"/>
-      <c r="Q842" s="2"/>
-      <c r="R842" s="2"/>
-      <c r="S842" s="2"/>
-      <c r="T842" s="2"/>
-      <c r="U842" s="2"/>
-      <c r="V842" s="2"/>
-      <c r="W842" s="2"/>
-      <c r="X842" s="2"/>
-      <c r="Y842" s="2"/>
-      <c r="Z842" s="2"/>
-    </row>
-    <row r="843" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A843" s="2"/>
-      <c r="B843" s="2"/>
-      <c r="C843" s="2"/>
-      <c r="D843" s="2"/>
-      <c r="E843" s="2"/>
-      <c r="F843" s="2"/>
-      <c r="G843" s="2"/>
-      <c r="H843" s="2"/>
-      <c r="I843" s="2"/>
-      <c r="J843" s="2"/>
-      <c r="K843" s="2"/>
-      <c r="L843" s="2"/>
-      <c r="M843" s="2"/>
-      <c r="N843" s="2"/>
-      <c r="O843" s="2"/>
-      <c r="P843" s="2"/>
-      <c r="Q843" s="2"/>
-      <c r="R843" s="2"/>
-      <c r="S843" s="2"/>
-      <c r="T843" s="2"/>
-      <c r="U843" s="2"/>
-      <c r="V843" s="2"/>
-      <c r="W843" s="2"/>
-      <c r="X843" s="2"/>
-      <c r="Y843" s="2"/>
-      <c r="Z843" s="2"/>
-    </row>
-    <row r="844" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A844" s="2"/>
-      <c r="B844" s="2"/>
-      <c r="C844" s="2"/>
-      <c r="D844" s="2"/>
-      <c r="E844" s="2"/>
-      <c r="F844" s="2"/>
-      <c r="G844" s="2"/>
-      <c r="H844" s="2"/>
-      <c r="I844" s="2"/>
-      <c r="J844" s="2"/>
-      <c r="K844" s="2"/>
-      <c r="L844" s="2"/>
-      <c r="M844" s="2"/>
-      <c r="N844" s="2"/>
-      <c r="O844" s="2"/>
-      <c r="P844" s="2"/>
-      <c r="Q844" s="2"/>
-      <c r="R844" s="2"/>
-      <c r="S844" s="2"/>
-      <c r="T844" s="2"/>
-      <c r="U844" s="2"/>
-      <c r="V844" s="2"/>
-      <c r="W844" s="2"/>
-      <c r="X844" s="2"/>
-      <c r="Y844" s="2"/>
-      <c r="Z844" s="2"/>
-    </row>
-    <row r="845" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A845" s="2"/>
-      <c r="B845" s="2"/>
-      <c r="C845" s="2"/>
-      <c r="D845" s="2"/>
-      <c r="E845" s="2"/>
-      <c r="F845" s="2"/>
-      <c r="G845" s="2"/>
-      <c r="H845" s="2"/>
-      <c r="I845" s="2"/>
-      <c r="J845" s="2"/>
-      <c r="K845" s="2"/>
-      <c r="L845" s="2"/>
-      <c r="M845" s="2"/>
-      <c r="N845" s="2"/>
-      <c r="O845" s="2"/>
-      <c r="P845" s="2"/>
-      <c r="Q845" s="2"/>
-      <c r="R845" s="2"/>
-      <c r="S845" s="2"/>
-      <c r="T845" s="2"/>
-      <c r="U845" s="2"/>
-      <c r="V845" s="2"/>
-      <c r="W845" s="2"/>
-      <c r="X845" s="2"/>
-      <c r="Y845" s="2"/>
-      <c r="Z845" s="2"/>
-    </row>
-    <row r="846" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A846" s="2"/>
-      <c r="B846" s="2"/>
-      <c r="C846" s="2"/>
-      <c r="D846" s="2"/>
-      <c r="E846" s="2"/>
-      <c r="F846" s="2"/>
-      <c r="G846" s="2"/>
-      <c r="H846" s="2"/>
-      <c r="I846" s="2"/>
-      <c r="J846" s="2"/>
-      <c r="K846" s="2"/>
-      <c r="L846" s="2"/>
-      <c r="M846" s="2"/>
-      <c r="N846" s="2"/>
-      <c r="O846" s="2"/>
-      <c r="P846" s="2"/>
-      <c r="Q846" s="2"/>
-      <c r="R846" s="2"/>
-      <c r="S846" s="2"/>
-      <c r="T846" s="2"/>
-      <c r="U846" s="2"/>
-      <c r="V846" s="2"/>
-      <c r="W846" s="2"/>
-      <c r="X846" s="2"/>
-      <c r="Y846" s="2"/>
-      <c r="Z846" s="2"/>
-    </row>
-    <row r="847" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A847" s="2"/>
-      <c r="B847" s="2"/>
-      <c r="C847" s="2"/>
-      <c r="D847" s="2"/>
-      <c r="E847" s="2"/>
-      <c r="F847" s="2"/>
-      <c r="G847" s="2"/>
-      <c r="H847" s="2"/>
-      <c r="I847" s="2"/>
-      <c r="J847" s="2"/>
-      <c r="K847" s="2"/>
-      <c r="L847" s="2"/>
-      <c r="M847" s="2"/>
-      <c r="N847" s="2"/>
-      <c r="O847" s="2"/>
-      <c r="P847" s="2"/>
-      <c r="Q847" s="2"/>
-      <c r="R847" s="2"/>
-      <c r="S847" s="2"/>
-      <c r="T847" s="2"/>
-      <c r="U847" s="2"/>
-      <c r="V847" s="2"/>
-      <c r="W847" s="2"/>
-      <c r="X847" s="2"/>
-      <c r="Y847" s="2"/>
-      <c r="Z847" s="2"/>
-    </row>
-    <row r="848" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A848" s="2"/>
-      <c r="B848" s="2"/>
-      <c r="C848" s="2"/>
-      <c r="D848" s="2"/>
-      <c r="E848" s="2"/>
-      <c r="F848" s="2"/>
-      <c r="G848" s="2"/>
-      <c r="H848" s="2"/>
-      <c r="I848" s="2"/>
-      <c r="J848" s="2"/>
-      <c r="K848" s="2"/>
-      <c r="L848" s="2"/>
-      <c r="M848" s="2"/>
-      <c r="N848" s="2"/>
-      <c r="O848" s="2"/>
-      <c r="P848" s="2"/>
-      <c r="Q848" s="2"/>
-      <c r="R848" s="2"/>
-      <c r="S848" s="2"/>
-      <c r="T848" s="2"/>
-      <c r="U848" s="2"/>
-      <c r="V848" s="2"/>
-      <c r="W848" s="2"/>
-      <c r="X848" s="2"/>
-      <c r="Y848" s="2"/>
-      <c r="Z848" s="2"/>
-    </row>
-    <row r="849" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A849" s="2"/>
-      <c r="B849" s="2"/>
-      <c r="C849" s="2"/>
-      <c r="D849" s="2"/>
-      <c r="E849" s="2"/>
-      <c r="F849" s="2"/>
-      <c r="G849" s="2"/>
-      <c r="H849" s="2"/>
-      <c r="I849" s="2"/>
-      <c r="J849" s="2"/>
-      <c r="K849" s="2"/>
-      <c r="L849" s="2"/>
-      <c r="M849" s="2"/>
-      <c r="N849" s="2"/>
-      <c r="O849" s="2"/>
-      <c r="P849" s="2"/>
-      <c r="Q849" s="2"/>
-      <c r="R849" s="2"/>
-      <c r="S849" s="2"/>
-      <c r="T849" s="2"/>
-      <c r="U849" s="2"/>
-      <c r="V849" s="2"/>
-      <c r="W849" s="2"/>
-      <c r="X849" s="2"/>
-      <c r="Y849" s="2"/>
-      <c r="Z849" s="2"/>
-    </row>
-    <row r="850" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A850" s="2"/>
-      <c r="B850" s="2"/>
-      <c r="C850" s="2"/>
-      <c r="D850" s="2"/>
-      <c r="E850" s="2"/>
-      <c r="F850" s="2"/>
-      <c r="G850" s="2"/>
-      <c r="H850" s="2"/>
-      <c r="I850" s="2"/>
-      <c r="J850" s="2"/>
-      <c r="K850" s="2"/>
-      <c r="L850" s="2"/>
-      <c r="M850" s="2"/>
-      <c r="N850" s="2"/>
-      <c r="O850" s="2"/>
-      <c r="P850" s="2"/>
-      <c r="Q850" s="2"/>
-      <c r="R850" s="2"/>
-      <c r="S850" s="2"/>
-      <c r="T850" s="2"/>
-      <c r="U850" s="2"/>
-      <c r="V850" s="2"/>
-      <c r="W850" s="2"/>
-      <c r="X850" s="2"/>
-      <c r="Y850" s="2"/>
-      <c r="Z850" s="2"/>
-    </row>
-    <row r="851" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A851" s="2"/>
-      <c r="B851" s="2"/>
-      <c r="C851" s="2"/>
-      <c r="D851" s="2"/>
-      <c r="E851" s="2"/>
-      <c r="F851" s="2"/>
-      <c r="G851" s="2"/>
-      <c r="H851" s="2"/>
-      <c r="I851" s="2"/>
-      <c r="J851" s="2"/>
-      <c r="K851" s="2"/>
-      <c r="L851" s="2"/>
-      <c r="M851" s="2"/>
-      <c r="N851" s="2"/>
-      <c r="O851" s="2"/>
-      <c r="P851" s="2"/>
-      <c r="Q851" s="2"/>
-      <c r="R851" s="2"/>
-      <c r="S851" s="2"/>
-      <c r="T851" s="2"/>
-      <c r="U851" s="2"/>
-      <c r="V851" s="2"/>
-      <c r="W851" s="2"/>
-      <c r="X851" s="2"/>
-      <c r="Y851" s="2"/>
-      <c r="Z851" s="2"/>
-    </row>
-    <row r="852" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A852" s="2"/>
-      <c r="B852" s="2"/>
-      <c r="C852" s="2"/>
-      <c r="D852" s="2"/>
-      <c r="E852" s="2"/>
-      <c r="F852" s="2"/>
-      <c r="G852" s="2"/>
-      <c r="H852" s="2"/>
-      <c r="I852" s="2"/>
-      <c r="J852" s="2"/>
-      <c r="K852" s="2"/>
-      <c r="L852" s="2"/>
-      <c r="M852" s="2"/>
-      <c r="N852" s="2"/>
-      <c r="O852" s="2"/>
-      <c r="P852" s="2"/>
-      <c r="Q852" s="2"/>
-      <c r="R852" s="2"/>
-      <c r="S852" s="2"/>
-      <c r="T852" s="2"/>
-      <c r="U852" s="2"/>
-      <c r="V852" s="2"/>
-      <c r="W852" s="2"/>
-      <c r="X852" s="2"/>
-      <c r="Y852" s="2"/>
-      <c r="Z852" s="2"/>
-    </row>
-    <row r="853" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A853" s="2"/>
-      <c r="B853" s="2"/>
-      <c r="C853" s="2"/>
-      <c r="D853" s="2"/>
-      <c r="E853" s="2"/>
-      <c r="F853" s="2"/>
-      <c r="G853" s="2"/>
-      <c r="H853" s="2"/>
-      <c r="I853" s="2"/>
-      <c r="J853" s="2"/>
-      <c r="K853" s="2"/>
-      <c r="L853" s="2"/>
-      <c r="M853" s="2"/>
-      <c r="N853" s="2"/>
-      <c r="O853" s="2"/>
-      <c r="P853" s="2"/>
-      <c r="Q853" s="2"/>
-      <c r="R853" s="2"/>
-      <c r="S853" s="2"/>
-      <c r="T853" s="2"/>
-      <c r="U853" s="2"/>
-      <c r="V853" s="2"/>
-      <c r="W853" s="2"/>
-      <c r="X853" s="2"/>
-      <c r="Y853" s="2"/>
-      <c r="Z853" s="2"/>
-    </row>
-    <row r="854" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A854" s="2"/>
-      <c r="B854" s="2"/>
-      <c r="C854" s="2"/>
-      <c r="D854" s="2"/>
-      <c r="E854" s="2"/>
-      <c r="F854" s="2"/>
-      <c r="G854" s="2"/>
-      <c r="H854" s="2"/>
-      <c r="I854" s="2"/>
-      <c r="J854" s="2"/>
-      <c r="K854" s="2"/>
-      <c r="L854" s="2"/>
-      <c r="M854" s="2"/>
-      <c r="N854" s="2"/>
-      <c r="O854" s="2"/>
-      <c r="P854" s="2"/>
-      <c r="Q854" s="2"/>
-      <c r="R854" s="2"/>
-      <c r="S854" s="2"/>
-      <c r="T854" s="2"/>
-      <c r="U854" s="2"/>
-      <c r="V854" s="2"/>
-      <c r="W854" s="2"/>
-      <c r="X854" s="2"/>
-      <c r="Y854" s="2"/>
-      <c r="Z854" s="2"/>
-    </row>
-    <row r="855" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A855" s="2"/>
-      <c r="B855" s="2"/>
-      <c r="C855" s="2"/>
-      <c r="D855" s="2"/>
-      <c r="E855" s="2"/>
-      <c r="F855" s="2"/>
-      <c r="G855" s="2"/>
-      <c r="H855" s="2"/>
-      <c r="I855" s="2"/>
-      <c r="J855" s="2"/>
-      <c r="K855" s="2"/>
-      <c r="L855" s="2"/>
-      <c r="M855" s="2"/>
-      <c r="N855" s="2"/>
-      <c r="O855" s="2"/>
-      <c r="P855" s="2"/>
-      <c r="Q855" s="2"/>
-      <c r="R855" s="2"/>
-      <c r="S855" s="2"/>
-      <c r="T855" s="2"/>
-      <c r="U855" s="2"/>
-      <c r="V855" s="2"/>
-      <c r="W855" s="2"/>
-      <c r="X855" s="2"/>
-      <c r="Y855" s="2"/>
-      <c r="Z855" s="2"/>
-    </row>
-    <row r="856" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A856" s="2"/>
-      <c r="B856" s="2"/>
-      <c r="C856" s="2"/>
-      <c r="D856" s="2"/>
-      <c r="E856" s="2"/>
-      <c r="F856" s="2"/>
-      <c r="G856" s="2"/>
-      <c r="H856" s="2"/>
-      <c r="I856" s="2"/>
-      <c r="J856" s="2"/>
-      <c r="K856" s="2"/>
-      <c r="L856" s="2"/>
-      <c r="M856" s="2"/>
-      <c r="N856" s="2"/>
-      <c r="O856" s="2"/>
-      <c r="P856" s="2"/>
-      <c r="Q856" s="2"/>
-      <c r="R856" s="2"/>
-      <c r="S856" s="2"/>
-      <c r="T856" s="2"/>
-      <c r="U856" s="2"/>
-      <c r="V856" s="2"/>
-      <c r="W856" s="2"/>
-      <c r="X856" s="2"/>
-      <c r="Y856" s="2"/>
-      <c r="Z856" s="2"/>
-    </row>
-    <row r="857" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A857" s="2"/>
-      <c r="B857" s="2"/>
-      <c r="C857" s="2"/>
-      <c r="D857" s="2"/>
-      <c r="E857" s="2"/>
-      <c r="F857" s="2"/>
-      <c r="G857" s="2"/>
-      <c r="H857" s="2"/>
-      <c r="I857" s="2"/>
-      <c r="J857" s="2"/>
-      <c r="K857" s="2"/>
-      <c r="L857" s="2"/>
-      <c r="M857" s="2"/>
-      <c r="N857" s="2"/>
-      <c r="O857" s="2"/>
-      <c r="P857" s="2"/>
-      <c r="Q857" s="2"/>
-      <c r="R857" s="2"/>
-      <c r="S857" s="2"/>
-      <c r="T857" s="2"/>
-      <c r="U857" s="2"/>
-      <c r="V857" s="2"/>
-      <c r="W857" s="2"/>
-      <c r="X857" s="2"/>
-      <c r="Y857" s="2"/>
-      <c r="Z857" s="2"/>
-    </row>
-    <row r="858" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A858" s="2"/>
-      <c r="B858" s="2"/>
-      <c r="C858" s="2"/>
-      <c r="D858" s="2"/>
-      <c r="E858" s="2"/>
-      <c r="F858" s="2"/>
-      <c r="G858" s="2"/>
-      <c r="H858" s="2"/>
-      <c r="I858" s="2"/>
-      <c r="J858" s="2"/>
-      <c r="K858" s="2"/>
-      <c r="L858" s="2"/>
-      <c r="M858" s="2"/>
-      <c r="N858" s="2"/>
-      <c r="O858" s="2"/>
-      <c r="P858" s="2"/>
-      <c r="Q858" s="2"/>
-      <c r="R858" s="2"/>
-      <c r="S858" s="2"/>
-      <c r="T858" s="2"/>
-      <c r="U858" s="2"/>
-      <c r="V858" s="2"/>
-      <c r="W858" s="2"/>
-      <c r="X858" s="2"/>
-      <c r="Y858" s="2"/>
-      <c r="Z858" s="2"/>
-    </row>
-    <row r="859" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A859" s="2"/>
-      <c r="B859" s="2"/>
-      <c r="C859" s="2"/>
-      <c r="D859" s="2"/>
-      <c r="E859" s="2"/>
-      <c r="F859" s="2"/>
-      <c r="G859" s="2"/>
-      <c r="H859" s="2"/>
-      <c r="I859" s="2"/>
-      <c r="J859" s="2"/>
-      <c r="K859" s="2"/>
-      <c r="L859" s="2"/>
-      <c r="M859" s="2"/>
-      <c r="N859" s="2"/>
-      <c r="O859" s="2"/>
-      <c r="P859" s="2"/>
-      <c r="Q859" s="2"/>
-      <c r="R859" s="2"/>
-      <c r="S859" s="2"/>
-      <c r="T859" s="2"/>
-      <c r="U859" s="2"/>
-      <c r="V859" s="2"/>
-      <c r="W859" s="2"/>
-      <c r="X859" s="2"/>
-      <c r="Y859" s="2"/>
-      <c r="Z859" s="2"/>
-    </row>
-    <row r="860" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A860" s="2"/>
-      <c r="B860" s="2"/>
-      <c r="C860" s="2"/>
-      <c r="D860" s="2"/>
-      <c r="E860" s="2"/>
-      <c r="F860" s="2"/>
-      <c r="G860" s="2"/>
-      <c r="H860" s="2"/>
-      <c r="I860" s="2"/>
-      <c r="J860" s="2"/>
-      <c r="K860" s="2"/>
-      <c r="L860" s="2"/>
-      <c r="M860" s="2"/>
-      <c r="N860" s="2"/>
-      <c r="O860" s="2"/>
-      <c r="P860" s="2"/>
-      <c r="Q860" s="2"/>
-      <c r="R860" s="2"/>
-      <c r="S860" s="2"/>
-      <c r="T860" s="2"/>
-      <c r="U860" s="2"/>
-      <c r="V860" s="2"/>
-      <c r="W860" s="2"/>
-      <c r="X860" s="2"/>
-      <c r="Y860" s="2"/>
-      <c r="Z860" s="2"/>
-    </row>
-    <row r="861" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A861" s="2"/>
-      <c r="B861" s="2"/>
-      <c r="C861" s="2"/>
-      <c r="D861" s="2"/>
-      <c r="E861" s="2"/>
-      <c r="F861" s="2"/>
-      <c r="G861" s="2"/>
-      <c r="H861" s="2"/>
-      <c r="I861" s="2"/>
-      <c r="J861" s="2"/>
-      <c r="K861" s="2"/>
-      <c r="L861" s="2"/>
-      <c r="M861" s="2"/>
-      <c r="N861" s="2"/>
-      <c r="O861" s="2"/>
-      <c r="P861" s="2"/>
-      <c r="Q861" s="2"/>
-      <c r="R861" s="2"/>
-      <c r="S861" s="2"/>
-      <c r="T861" s="2"/>
-      <c r="U861" s="2"/>
-      <c r="V861" s="2"/>
-      <c r="W861" s="2"/>
-      <c r="X861" s="2"/>
-      <c r="Y861" s="2"/>
-      <c r="Z861" s="2"/>
-    </row>
-    <row r="862" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A862" s="2"/>
-      <c r="B862" s="2"/>
-      <c r="C862" s="2"/>
-      <c r="D862" s="2"/>
-      <c r="E862" s="2"/>
-      <c r="F862" s="2"/>
-      <c r="G862" s="2"/>
-      <c r="H862" s="2"/>
-      <c r="I862" s="2"/>
-      <c r="J862" s="2"/>
-      <c r="K862" s="2"/>
-      <c r="L862" s="2"/>
-      <c r="M862" s="2"/>
-      <c r="N862" s="2"/>
-      <c r="O862" s="2"/>
-      <c r="P862" s="2"/>
-      <c r="Q862" s="2"/>
-      <c r="R862" s="2"/>
-      <c r="S862" s="2"/>
-      <c r="T862" s="2"/>
-      <c r="U862" s="2"/>
-      <c r="V862" s="2"/>
-      <c r="W862" s="2"/>
-      <c r="X862" s="2"/>
-      <c r="Y862" s="2"/>
-      <c r="Z862" s="2"/>
-    </row>
-    <row r="863" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A863" s="2"/>
-      <c r="B863" s="2"/>
-      <c r="C863" s="2"/>
-      <c r="D863" s="2"/>
-      <c r="E863" s="2"/>
-      <c r="F863" s="2"/>
-      <c r="G863" s="2"/>
-      <c r="H863" s="2"/>
-      <c r="I863" s="2"/>
-      <c r="J863" s="2"/>
-      <c r="K863" s="2"/>
-      <c r="L863" s="2"/>
-      <c r="M863" s="2"/>
-      <c r="N863" s="2"/>
-      <c r="O863" s="2"/>
-      <c r="P863" s="2"/>
-      <c r="Q863" s="2"/>
-      <c r="R863" s="2"/>
-      <c r="S863" s="2"/>
-      <c r="T863" s="2"/>
-      <c r="U863" s="2"/>
-      <c r="V863" s="2"/>
-      <c r="W863" s="2"/>
-      <c r="X863" s="2"/>
-      <c r="Y863" s="2"/>
-      <c r="Z863" s="2"/>
-    </row>
-    <row r="864" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A864" s="2"/>
-      <c r="B864" s="2"/>
-      <c r="C864" s="2"/>
-      <c r="D864" s="2"/>
-      <c r="E864" s="2"/>
-      <c r="F864" s="2"/>
-      <c r="G864" s="2"/>
-      <c r="H864" s="2"/>
-      <c r="I864" s="2"/>
-      <c r="J864" s="2"/>
-      <c r="K864" s="2"/>
-      <c r="L864" s="2"/>
-      <c r="M864" s="2"/>
-      <c r="N864" s="2"/>
-      <c r="O864" s="2"/>
-      <c r="P864" s="2"/>
-      <c r="Q864" s="2"/>
-      <c r="R864" s="2"/>
-      <c r="S864" s="2"/>
-      <c r="T864" s="2"/>
-      <c r="U864" s="2"/>
-      <c r="V864" s="2"/>
-      <c r="W864" s="2"/>
-      <c r="X864" s="2"/>
-      <c r="Y864" s="2"/>
-      <c r="Z864" s="2"/>
-    </row>
-    <row r="865" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A865" s="2"/>
-      <c r="B865" s="2"/>
-      <c r="C865" s="2"/>
-      <c r="D865" s="2"/>
-      <c r="E865" s="2"/>
-      <c r="F865" s="2"/>
-      <c r="G865" s="2"/>
-      <c r="H865" s="2"/>
-      <c r="I865" s="2"/>
-      <c r="J865" s="2"/>
-      <c r="K865" s="2"/>
-      <c r="L865" s="2"/>
-      <c r="M865" s="2"/>
-      <c r="N865" s="2"/>
-      <c r="O865" s="2"/>
-      <c r="P865" s="2"/>
-      <c r="Q865" s="2"/>
-      <c r="R865" s="2"/>
-      <c r="S865" s="2"/>
-      <c r="T865" s="2"/>
-      <c r="U865" s="2"/>
-      <c r="V865" s="2"/>
-      <c r="W865" s="2"/>
-      <c r="X865" s="2"/>
-      <c r="Y865" s="2"/>
-      <c r="Z865" s="2"/>
-    </row>
-    <row r="866" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A866" s="2"/>
-      <c r="B866" s="2"/>
-      <c r="C866" s="2"/>
-      <c r="D866" s="2"/>
-      <c r="E866" s="2"/>
-      <c r="F866" s="2"/>
-      <c r="G866" s="2"/>
-      <c r="H866" s="2"/>
-      <c r="I866" s="2"/>
-      <c r="J866" s="2"/>
-      <c r="K866" s="2"/>
-      <c r="L866" s="2"/>
-      <c r="M866" s="2"/>
-      <c r="N866" s="2"/>
-      <c r="O866" s="2"/>
-      <c r="P866" s="2"/>
-      <c r="Q866" s="2"/>
-      <c r="R866" s="2"/>
-      <c r="S866" s="2"/>
-      <c r="T866" s="2"/>
-      <c r="U866" s="2"/>
-      <c r="V866" s="2"/>
-      <c r="W866" s="2"/>
-      <c r="X866" s="2"/>
-      <c r="Y866" s="2"/>
-      <c r="Z866" s="2"/>
-    </row>
-    <row r="867" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A867" s="2"/>
-      <c r="B867" s="2"/>
-      <c r="C867" s="2"/>
-      <c r="D867" s="2"/>
-      <c r="E867" s="2"/>
-      <c r="F867" s="2"/>
-      <c r="G867" s="2"/>
-      <c r="H867" s="2"/>
-      <c r="I867" s="2"/>
-      <c r="J867" s="2"/>
-      <c r="K867" s="2"/>
-      <c r="L867" s="2"/>
-      <c r="M867" s="2"/>
-      <c r="N867" s="2"/>
-      <c r="O867" s="2"/>
-      <c r="P867" s="2"/>
-      <c r="Q867" s="2"/>
-      <c r="R867" s="2"/>
-      <c r="S867" s="2"/>
-      <c r="T867" s="2"/>
-      <c r="U867" s="2"/>
-      <c r="V867" s="2"/>
-      <c r="W867" s="2"/>
-      <c r="X867" s="2"/>
-      <c r="Y867" s="2"/>
-      <c r="Z867" s="2"/>
-    </row>
-    <row r="868" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A868" s="2"/>
-      <c r="B868" s="2"/>
-      <c r="C868" s="2"/>
-      <c r="D868" s="2"/>
-      <c r="E868" s="2"/>
-      <c r="F868" s="2"/>
-      <c r="G868" s="2"/>
-      <c r="H868" s="2"/>
-      <c r="I868" s="2"/>
-      <c r="J868" s="2"/>
-      <c r="K868" s="2"/>
-      <c r="L868" s="2"/>
-      <c r="M868" s="2"/>
-      <c r="N868" s="2"/>
-      <c r="O868" s="2"/>
-      <c r="P868" s="2"/>
-      <c r="Q868" s="2"/>
-      <c r="R868" s="2"/>
-      <c r="S868" s="2"/>
-      <c r="T868" s="2"/>
-      <c r="U868" s="2"/>
-      <c r="V868" s="2"/>
-      <c r="W868" s="2"/>
-      <c r="X868" s="2"/>
-      <c r="Y868" s="2"/>
-      <c r="Z868" s="2"/>
-    </row>
-    <row r="869" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A869" s="2"/>
-      <c r="B869" s="2"/>
-      <c r="C869" s="2"/>
-      <c r="D869" s="2"/>
-      <c r="E869" s="2"/>
-      <c r="F869" s="2"/>
-      <c r="G869" s="2"/>
-      <c r="H869" s="2"/>
-      <c r="I869" s="2"/>
-      <c r="J869" s="2"/>
-      <c r="K869" s="2"/>
-      <c r="L869" s="2"/>
-      <c r="M869" s="2"/>
-      <c r="N869" s="2"/>
-      <c r="O869" s="2"/>
-      <c r="P869" s="2"/>
-      <c r="Q869" s="2"/>
-      <c r="R869" s="2"/>
-      <c r="S869" s="2"/>
-      <c r="T869" s="2"/>
-      <c r="U869" s="2"/>
-      <c r="V869" s="2"/>
-      <c r="W869" s="2"/>
-      <c r="X869" s="2"/>
-      <c r="Y869" s="2"/>
-      <c r="Z869" s="2"/>
-    </row>
-    <row r="870" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A870" s="2"/>
-      <c r="B870" s="2"/>
-      <c r="C870" s="2"/>
-      <c r="D870" s="2"/>
-      <c r="E870" s="2"/>
-      <c r="F870" s="2"/>
-      <c r="G870" s="2"/>
-      <c r="H870" s="2"/>
-      <c r="I870" s="2"/>
-      <c r="J870" s="2"/>
-      <c r="K870" s="2"/>
-      <c r="L870" s="2"/>
-      <c r="M870" s="2"/>
-      <c r="N870" s="2"/>
-      <c r="O870" s="2"/>
-      <c r="P870" s="2"/>
-      <c r="Q870" s="2"/>
-      <c r="R870" s="2"/>
-      <c r="S870" s="2"/>
-      <c r="T870" s="2"/>
-      <c r="U870" s="2"/>
-      <c r="V870" s="2"/>
-      <c r="W870" s="2"/>
-      <c r="X870" s="2"/>
-      <c r="Y870" s="2"/>
-      <c r="Z870" s="2"/>
-    </row>
-    <row r="871" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A871" s="2"/>
-      <c r="B871" s="2"/>
-      <c r="C871" s="2"/>
-      <c r="D871" s="2"/>
-      <c r="E871" s="2"/>
-      <c r="F871" s="2"/>
-      <c r="G871" s="2"/>
-      <c r="H871" s="2"/>
-      <c r="I871" s="2"/>
-      <c r="J871" s="2"/>
-      <c r="K871" s="2"/>
-      <c r="L871" s="2"/>
-      <c r="M871" s="2"/>
-      <c r="N871" s="2"/>
-      <c r="O871" s="2"/>
-      <c r="P871" s="2"/>
-      <c r="Q871" s="2"/>
-      <c r="R871" s="2"/>
-      <c r="S871" s="2"/>
-      <c r="T871" s="2"/>
-      <c r="U871" s="2"/>
-      <c r="V871" s="2"/>
-      <c r="W871" s="2"/>
-      <c r="X871" s="2"/>
-      <c r="Y871" s="2"/>
-      <c r="Z871" s="2"/>
-    </row>
-    <row r="872" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A872" s="2"/>
-      <c r="B872" s="2"/>
-      <c r="C872" s="2"/>
-      <c r="D872" s="2"/>
-      <c r="E872" s="2"/>
-      <c r="F872" s="2"/>
-      <c r="G872" s="2"/>
-      <c r="H872" s="2"/>
-      <c r="I872" s="2"/>
-      <c r="J872" s="2"/>
-      <c r="K872" s="2"/>
-      <c r="L872" s="2"/>
-      <c r="M872" s="2"/>
-      <c r="N872" s="2"/>
-      <c r="O872" s="2"/>
-      <c r="P872" s="2"/>
-      <c r="Q872" s="2"/>
-      <c r="R872" s="2"/>
-      <c r="S872" s="2"/>
-      <c r="T872" s="2"/>
-      <c r="U872" s="2"/>
-      <c r="V872" s="2"/>
-      <c r="W872" s="2"/>
-      <c r="X872" s="2"/>
-      <c r="Y872" s="2"/>
-      <c r="Z872" s="2"/>
-    </row>
-    <row r="873" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A873" s="2"/>
-      <c r="B873" s="2"/>
-      <c r="C873" s="2"/>
-      <c r="D873" s="2"/>
-      <c r="E873" s="2"/>
-      <c r="F873" s="2"/>
-      <c r="G873" s="2"/>
-      <c r="H873" s="2"/>
-      <c r="I873" s="2"/>
-      <c r="J873" s="2"/>
-      <c r="K873" s="2"/>
-      <c r="L873" s="2"/>
-      <c r="M873" s="2"/>
-      <c r="N873" s="2"/>
-      <c r="O873" s="2"/>
-      <c r="P873" s="2"/>
-      <c r="Q873" s="2"/>
-      <c r="R873" s="2"/>
-      <c r="S873" s="2"/>
-      <c r="T873" s="2"/>
-      <c r="U873" s="2"/>
-      <c r="V873" s="2"/>
-      <c r="W873" s="2"/>
-      <c r="X873" s="2"/>
-      <c r="Y873" s="2"/>
-      <c r="Z873" s="2"/>
-    </row>
-    <row r="874" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A874" s="2"/>
-      <c r="B874" s="2"/>
-      <c r="C874" s="2"/>
-      <c r="D874" s="2"/>
-      <c r="E874" s="2"/>
-      <c r="F874" s="2"/>
-      <c r="G874" s="2"/>
-      <c r="H874" s="2"/>
-      <c r="I874" s="2"/>
-      <c r="J874" s="2"/>
-      <c r="K874" s="2"/>
-      <c r="L874" s="2"/>
-      <c r="M874" s="2"/>
-      <c r="N874" s="2"/>
-      <c r="O874" s="2"/>
-      <c r="P874" s="2"/>
-      <c r="Q874" s="2"/>
-      <c r="R874" s="2"/>
-      <c r="S874" s="2"/>
-      <c r="T874" s="2"/>
-      <c r="U874" s="2"/>
-      <c r="V874" s="2"/>
-      <c r="W874" s="2"/>
-      <c r="X874" s="2"/>
-      <c r="Y874" s="2"/>
-      <c r="Z874" s="2"/>
-    </row>
-    <row r="875" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A875" s="2"/>
-      <c r="B875" s="2"/>
-      <c r="C875" s="2"/>
-      <c r="D875" s="2"/>
-      <c r="E875" s="2"/>
-      <c r="F875" s="2"/>
-      <c r="G875" s="2"/>
-      <c r="H875" s="2"/>
-      <c r="I875" s="2"/>
-      <c r="J875" s="2"/>
-      <c r="K875" s="2"/>
-      <c r="L875" s="2"/>
-      <c r="M875" s="2"/>
-      <c r="N875" s="2"/>
-      <c r="O875" s="2"/>
-      <c r="P875" s="2"/>
-      <c r="Q875" s="2"/>
-      <c r="R875" s="2"/>
-      <c r="S875" s="2"/>
-      <c r="T875" s="2"/>
-      <c r="U875" s="2"/>
-      <c r="V875" s="2"/>
-      <c r="W875" s="2"/>
-      <c r="X875" s="2"/>
-      <c r="Y875" s="2"/>
-      <c r="Z875" s="2"/>
-    </row>
-    <row r="876" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A876" s="2"/>
-      <c r="B876" s="2"/>
-      <c r="C876" s="2"/>
-      <c r="D876" s="2"/>
-      <c r="E876" s="2"/>
-      <c r="F876" s="2"/>
-      <c r="G876" s="2"/>
-      <c r="H876" s="2"/>
-      <c r="I876" s="2"/>
-      <c r="J876" s="2"/>
-      <c r="K876" s="2"/>
-      <c r="L876" s="2"/>
-      <c r="M876" s="2"/>
-      <c r="N876" s="2"/>
-      <c r="O876" s="2"/>
-      <c r="P876" s="2"/>
-      <c r="Q876" s="2"/>
-      <c r="R876" s="2"/>
-      <c r="S876" s="2"/>
-      <c r="T876" s="2"/>
-      <c r="U876" s="2"/>
-      <c r="V876" s="2"/>
-      <c r="W876" s="2"/>
-      <c r="X876" s="2"/>
-      <c r="Y876" s="2"/>
-      <c r="Z876" s="2"/>
-    </row>
-    <row r="877" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A877" s="2"/>
-      <c r="B877" s="2"/>
-      <c r="C877" s="2"/>
-      <c r="D877" s="2"/>
-      <c r="E877" s="2"/>
-      <c r="F877" s="2"/>
-      <c r="G877" s="2"/>
-      <c r="H877" s="2"/>
-      <c r="I877" s="2"/>
-      <c r="J877" s="2"/>
-      <c r="K877" s="2"/>
-      <c r="L877" s="2"/>
-      <c r="M877" s="2"/>
-      <c r="N877" s="2"/>
-      <c r="O877" s="2"/>
-      <c r="P877" s="2"/>
-      <c r="Q877" s="2"/>
-      <c r="R877" s="2"/>
-      <c r="S877" s="2"/>
-      <c r="T877" s="2"/>
-      <c r="U877" s="2"/>
-      <c r="V877" s="2"/>
-      <c r="W877" s="2"/>
-      <c r="X877" s="2"/>
-      <c r="Y877" s="2"/>
-      <c r="Z877" s="2"/>
-    </row>
-    <row r="878" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A878" s="2"/>
-      <c r="B878" s="2"/>
-      <c r="C878" s="2"/>
-      <c r="D878" s="2"/>
-      <c r="E878" s="2"/>
-      <c r="F878" s="2"/>
-      <c r="G878" s="2"/>
-      <c r="H878" s="2"/>
-      <c r="I878" s="2"/>
-      <c r="J878" s="2"/>
-      <c r="K878" s="2"/>
-      <c r="L878" s="2"/>
-      <c r="M878" s="2"/>
-      <c r="N878" s="2"/>
-      <c r="O878" s="2"/>
-      <c r="P878" s="2"/>
-      <c r="Q878" s="2"/>
-      <c r="R878" s="2"/>
-      <c r="S878" s="2"/>
-      <c r="T878" s="2"/>
-      <c r="U878" s="2"/>
-      <c r="V878" s="2"/>
-      <c r="W878" s="2"/>
-      <c r="X878" s="2"/>
-      <c r="Y878" s="2"/>
-      <c r="Z878" s="2"/>
-    </row>
-    <row r="879" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A879" s="2"/>
-      <c r="B879" s="2"/>
-      <c r="C879" s="2"/>
-      <c r="D879" s="2"/>
-      <c r="E879" s="2"/>
-      <c r="F879" s="2"/>
-      <c r="G879" s="2"/>
-      <c r="H879" s="2"/>
-      <c r="I879" s="2"/>
-      <c r="J879" s="2"/>
-      <c r="K879" s="2"/>
-      <c r="L879" s="2"/>
-      <c r="M879" s="2"/>
-      <c r="N879" s="2"/>
-      <c r="O879" s="2"/>
-      <c r="P879" s="2"/>
-      <c r="Q879" s="2"/>
-      <c r="R879" s="2"/>
-      <c r="S879" s="2"/>
-      <c r="T879" s="2"/>
-      <c r="U879" s="2"/>
-      <c r="V879" s="2"/>
-      <c r="W879" s="2"/>
-      <c r="X879" s="2"/>
-      <c r="Y879" s="2"/>
-      <c r="Z879" s="2"/>
-    </row>
-    <row r="880" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A880" s="2"/>
-      <c r="B880" s="2"/>
-      <c r="C880" s="2"/>
-      <c r="D880" s="2"/>
-      <c r="E880" s="2"/>
-      <c r="F880" s="2"/>
-      <c r="G880" s="2"/>
-      <c r="H880" s="2"/>
-      <c r="I880" s="2"/>
-      <c r="J880" s="2"/>
-      <c r="K880" s="2"/>
-      <c r="L880" s="2"/>
-      <c r="M880" s="2"/>
-      <c r="N880" s="2"/>
-      <c r="O880" s="2"/>
-      <c r="P880" s="2"/>
-      <c r="Q880" s="2"/>
-      <c r="R880" s="2"/>
-      <c r="S880" s="2"/>
-      <c r="T880" s="2"/>
-      <c r="U880" s="2"/>
-      <c r="V880" s="2"/>
-      <c r="W880" s="2"/>
-      <c r="X880" s="2"/>
-      <c r="Y880" s="2"/>
-      <c r="Z880" s="2"/>
-    </row>
-    <row r="881" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A881" s="2"/>
-      <c r="B881" s="2"/>
-      <c r="C881" s="2"/>
-      <c r="D881" s="2"/>
-      <c r="E881" s="2"/>
-      <c r="F881" s="2"/>
-      <c r="G881" s="2"/>
-      <c r="H881" s="2"/>
-      <c r="I881" s="2"/>
-      <c r="J881" s="2"/>
-      <c r="K881" s="2"/>
-      <c r="L881" s="2"/>
-      <c r="M881" s="2"/>
-      <c r="N881" s="2"/>
-      <c r="O881" s="2"/>
-      <c r="P881" s="2"/>
-      <c r="Q881" s="2"/>
-      <c r="R881" s="2"/>
-      <c r="S881" s="2"/>
-      <c r="T881" s="2"/>
-      <c r="U881" s="2"/>
-      <c r="V881" s="2"/>
-      <c r="W881" s="2"/>
-      <c r="X881" s="2"/>
-      <c r="Y881" s="2"/>
-      <c r="Z881" s="2"/>
-    </row>
-    <row r="882" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A882" s="2"/>
-      <c r="B882" s="2"/>
-      <c r="C882" s="2"/>
-      <c r="D882" s="2"/>
-      <c r="E882" s="2"/>
-      <c r="F882" s="2"/>
-      <c r="G882" s="2"/>
-      <c r="H882" s="2"/>
-      <c r="I882" s="2"/>
-      <c r="J882" s="2"/>
-      <c r="K882" s="2"/>
-      <c r="L882" s="2"/>
-      <c r="M882" s="2"/>
-      <c r="N882" s="2"/>
-      <c r="O882" s="2"/>
-      <c r="P882" s="2"/>
-      <c r="Q882" s="2"/>
-      <c r="R882" s="2"/>
-      <c r="S882" s="2"/>
-      <c r="T882" s="2"/>
-      <c r="U882" s="2"/>
-      <c r="V882" s="2"/>
-      <c r="W882" s="2"/>
-      <c r="X882" s="2"/>
-      <c r="Y882" s="2"/>
-      <c r="Z882" s="2"/>
-    </row>
-    <row r="883" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A883" s="2"/>
-      <c r="B883" s="2"/>
-      <c r="C883" s="2"/>
-      <c r="D883" s="2"/>
-      <c r="E883" s="2"/>
-      <c r="F883" s="2"/>
-      <c r="G883" s="2"/>
-      <c r="H883" s="2"/>
-      <c r="I883" s="2"/>
-      <c r="J883" s="2"/>
-      <c r="K883" s="2"/>
-      <c r="L883" s="2"/>
-      <c r="M883" s="2"/>
-      <c r="N883" s="2"/>
-      <c r="O883" s="2"/>
-      <c r="P883" s="2"/>
-      <c r="Q883" s="2"/>
-      <c r="R883" s="2"/>
-      <c r="S883" s="2"/>
-      <c r="T883" s="2"/>
-      <c r="U883" s="2"/>
-      <c r="V883" s="2"/>
-      <c r="W883" s="2"/>
-      <c r="X883" s="2"/>
-      <c r="Y883" s="2"/>
-      <c r="Z883" s="2"/>
-    </row>
-    <row r="884" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A884" s="2"/>
-      <c r="B884" s="2"/>
-      <c r="C884" s="2"/>
-      <c r="D884" s="2"/>
-      <c r="E884" s="2"/>
-      <c r="F884" s="2"/>
-      <c r="G884" s="2"/>
-      <c r="H884" s="2"/>
-      <c r="I884" s="2"/>
-      <c r="J884" s="2"/>
-      <c r="K884" s="2"/>
-      <c r="L884" s="2"/>
-      <c r="M884" s="2"/>
-      <c r="N884" s="2"/>
-      <c r="O884" s="2"/>
-      <c r="P884" s="2"/>
-      <c r="Q884" s="2"/>
-      <c r="R884" s="2"/>
-      <c r="S884" s="2"/>
-      <c r="T884" s="2"/>
-      <c r="U884" s="2"/>
-      <c r="V884" s="2"/>
-      <c r="W884" s="2"/>
-      <c r="X884" s="2"/>
-      <c r="Y884" s="2"/>
-      <c r="Z884" s="2"/>
-    </row>
-    <row r="885" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A885" s="2"/>
-      <c r="B885" s="2"/>
-      <c r="C885" s="2"/>
-      <c r="D885" s="2"/>
-      <c r="E885" s="2"/>
-      <c r="F885" s="2"/>
-      <c r="G885" s="2"/>
-      <c r="H885" s="2"/>
-      <c r="I885" s="2"/>
-      <c r="J885" s="2"/>
-      <c r="K885" s="2"/>
-      <c r="L885" s="2"/>
-      <c r="M885" s="2"/>
-      <c r="N885" s="2"/>
-      <c r="O885" s="2"/>
-      <c r="P885" s="2"/>
-      <c r="Q885" s="2"/>
-      <c r="R885" s="2"/>
-      <c r="S885" s="2"/>
-      <c r="T885" s="2"/>
-      <c r="U885" s="2"/>
-      <c r="V885" s="2"/>
-      <c r="W885" s="2"/>
-      <c r="X885" s="2"/>
-      <c r="Y885" s="2"/>
-      <c r="Z885" s="2"/>
-    </row>
-    <row r="886" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A886" s="2"/>
-      <c r="B886" s="2"/>
-      <c r="C886" s="2"/>
-      <c r="D886" s="2"/>
-      <c r="E886" s="2"/>
-      <c r="F886" s="2"/>
-      <c r="G886" s="2"/>
-      <c r="H886" s="2"/>
-      <c r="I886" s="2"/>
-      <c r="J886" s="2"/>
-      <c r="K886" s="2"/>
-      <c r="L886" s="2"/>
-      <c r="M886" s="2"/>
-      <c r="N886" s="2"/>
-      <c r="O886" s="2"/>
-      <c r="P886" s="2"/>
-      <c r="Q886" s="2"/>
-      <c r="R886" s="2"/>
-      <c r="S886" s="2"/>
-      <c r="T886" s="2"/>
-      <c r="U886" s="2"/>
-      <c r="V886" s="2"/>
-      <c r="W886" s="2"/>
-      <c r="X886" s="2"/>
-      <c r="Y886" s="2"/>
-      <c r="Z886" s="2"/>
-    </row>
-    <row r="887" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A887" s="2"/>
-      <c r="B887" s="2"/>
-      <c r="C887" s="2"/>
-      <c r="D887" s="2"/>
-      <c r="E887" s="2"/>
-      <c r="F887" s="2"/>
-      <c r="G887" s="2"/>
-      <c r="H887" s="2"/>
-      <c r="I887" s="2"/>
-      <c r="J887" s="2"/>
-      <c r="K887" s="2"/>
-      <c r="L887" s="2"/>
-      <c r="M887" s="2"/>
-      <c r="N887" s="2"/>
-      <c r="O887" s="2"/>
-      <c r="P887" s="2"/>
-      <c r="Q887" s="2"/>
-      <c r="R887" s="2"/>
-      <c r="S887" s="2"/>
-      <c r="T887" s="2"/>
-      <c r="U887" s="2"/>
-      <c r="V887" s="2"/>
-      <c r="W887" s="2"/>
-      <c r="X887" s="2"/>
-      <c r="Y887" s="2"/>
-      <c r="Z887" s="2"/>
-    </row>
-    <row r="888" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A888" s="2"/>
-      <c r="B888" s="2"/>
-      <c r="C888" s="2"/>
-      <c r="D888" s="2"/>
-      <c r="E888" s="2"/>
-      <c r="F888" s="2"/>
-      <c r="G888" s="2"/>
-      <c r="H888" s="2"/>
-      <c r="I888" s="2"/>
-      <c r="J888" s="2"/>
-      <c r="K888" s="2"/>
-      <c r="L888" s="2"/>
-      <c r="M888" s="2"/>
-      <c r="N888" s="2"/>
-      <c r="O888" s="2"/>
-      <c r="P888" s="2"/>
-      <c r="Q888" s="2"/>
-      <c r="R888" s="2"/>
-      <c r="S888" s="2"/>
-      <c r="T888" s="2"/>
-      <c r="U888" s="2"/>
-      <c r="V888" s="2"/>
-      <c r="W888" s="2"/>
-      <c r="X888" s="2"/>
-      <c r="Y888" s="2"/>
-      <c r="Z888" s="2"/>
-    </row>
-    <row r="889" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A889" s="2"/>
-      <c r="B889" s="2"/>
-      <c r="C889" s="2"/>
-      <c r="D889" s="2"/>
-      <c r="E889" s="2"/>
-      <c r="F889" s="2"/>
-      <c r="G889" s="2"/>
-      <c r="H889" s="2"/>
-      <c r="I889" s="2"/>
-      <c r="J889" s="2"/>
-      <c r="K889" s="2"/>
-      <c r="L889" s="2"/>
-      <c r="M889" s="2"/>
-      <c r="N889" s="2"/>
-      <c r="O889" s="2"/>
-      <c r="P889" s="2"/>
-      <c r="Q889" s="2"/>
-      <c r="R889" s="2"/>
-      <c r="S889" s="2"/>
-      <c r="T889" s="2"/>
-      <c r="U889" s="2"/>
-      <c r="V889" s="2"/>
-      <c r="W889" s="2"/>
-      <c r="X889" s="2"/>
-      <c r="Y889" s="2"/>
-      <c r="Z889" s="2"/>
-    </row>
-    <row r="890" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A890" s="2"/>
-      <c r="B890" s="2"/>
-      <c r="C890" s="2"/>
-      <c r="D890" s="2"/>
-      <c r="E890" s="2"/>
-      <c r="F890" s="2"/>
-      <c r="G890" s="2"/>
-      <c r="H890" s="2"/>
-      <c r="I890" s="2"/>
-      <c r="J890" s="2"/>
-      <c r="K890" s="2"/>
-      <c r="L890" s="2"/>
-      <c r="M890" s="2"/>
-      <c r="N890" s="2"/>
-      <c r="O890" s="2"/>
-      <c r="P890" s="2"/>
-      <c r="Q890" s="2"/>
-      <c r="R890" s="2"/>
-      <c r="S890" s="2"/>
-      <c r="T890" s="2"/>
-      <c r="U890" s="2"/>
-      <c r="V890" s="2"/>
-      <c r="W890" s="2"/>
-      <c r="X890" s="2"/>
-      <c r="Y890" s="2"/>
-      <c r="Z890" s="2"/>
-    </row>
-    <row r="891" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A891" s="2"/>
-      <c r="B891" s="2"/>
-      <c r="C891" s="2"/>
-      <c r="D891" s="2"/>
-      <c r="E891" s="2"/>
-      <c r="F891" s="2"/>
-      <c r="G891" s="2"/>
-      <c r="H891" s="2"/>
-      <c r="I891" s="2"/>
-      <c r="J891" s="2"/>
-      <c r="K891" s="2"/>
-      <c r="L891" s="2"/>
-      <c r="M891" s="2"/>
-      <c r="N891" s="2"/>
-      <c r="O891" s="2"/>
-      <c r="P891" s="2"/>
-      <c r="Q891" s="2"/>
-      <c r="R891" s="2"/>
-      <c r="S891" s="2"/>
-      <c r="T891" s="2"/>
-      <c r="U891" s="2"/>
-      <c r="V891" s="2"/>
-      <c r="W891" s="2"/>
-      <c r="X891" s="2"/>
-      <c r="Y891" s="2"/>
-      <c r="Z891" s="2"/>
-    </row>
-    <row r="892" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A892" s="2"/>
-      <c r="B892" s="2"/>
-      <c r="C892" s="2"/>
-      <c r="D892" s="2"/>
-      <c r="E892" s="2"/>
-      <c r="F892" s="2"/>
-      <c r="G892" s="2"/>
-      <c r="H892" s="2"/>
-      <c r="I892" s="2"/>
-      <c r="J892" s="2"/>
-      <c r="K892" s="2"/>
-      <c r="L892" s="2"/>
-      <c r="M892" s="2"/>
-      <c r="N892" s="2"/>
-      <c r="O892" s="2"/>
-      <c r="P892" s="2"/>
-      <c r="Q892" s="2"/>
-      <c r="R892" s="2"/>
-      <c r="S892" s="2"/>
-      <c r="T892" s="2"/>
-      <c r="U892" s="2"/>
-      <c r="V892" s="2"/>
-      <c r="W892" s="2"/>
-      <c r="X892" s="2"/>
-      <c r="Y892" s="2"/>
-      <c r="Z892" s="2"/>
-    </row>
-    <row r="893" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A893" s="2"/>
-      <c r="B893" s="2"/>
-      <c r="C893" s="2"/>
-      <c r="D893" s="2"/>
-      <c r="E893" s="2"/>
-      <c r="F893" s="2"/>
-      <c r="G893" s="2"/>
-      <c r="H893" s="2"/>
-      <c r="I893" s="2"/>
-      <c r="J893" s="2"/>
-      <c r="K893" s="2"/>
-      <c r="L893" s="2"/>
-      <c r="M893" s="2"/>
-      <c r="N893" s="2"/>
-      <c r="O893" s="2"/>
-      <c r="P893" s="2"/>
-      <c r="Q893" s="2"/>
-      <c r="R893" s="2"/>
-      <c r="S893" s="2"/>
-      <c r="T893" s="2"/>
-      <c r="U893" s="2"/>
-      <c r="V893" s="2"/>
-      <c r="W893" s="2"/>
-      <c r="X893" s="2"/>
-      <c r="Y893" s="2"/>
-      <c r="Z893" s="2"/>
-    </row>
-    <row r="894" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A894" s="2"/>
-      <c r="B894" s="2"/>
-      <c r="C894" s="2"/>
-      <c r="D894" s="2"/>
-      <c r="E894" s="2"/>
-      <c r="F894" s="2"/>
-      <c r="G894" s="2"/>
-      <c r="H894" s="2"/>
-      <c r="I894" s="2"/>
-      <c r="J894" s="2"/>
-      <c r="K894" s="2"/>
-      <c r="L894" s="2"/>
-      <c r="M894" s="2"/>
-      <c r="N894" s="2"/>
-      <c r="O894" s="2"/>
-      <c r="P894" s="2"/>
-      <c r="Q894" s="2"/>
-      <c r="R894" s="2"/>
-      <c r="S894" s="2"/>
-      <c r="T894" s="2"/>
-      <c r="U894" s="2"/>
-      <c r="V894" s="2"/>
-      <c r="W894" s="2"/>
-      <c r="X894" s="2"/>
-      <c r="Y894" s="2"/>
-      <c r="Z894" s="2"/>
-    </row>
-    <row r="895" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A895" s="2"/>
-      <c r="B895" s="2"/>
-      <c r="C895" s="2"/>
-      <c r="D895" s="2"/>
-      <c r="E895" s="2"/>
-      <c r="F895" s="2"/>
-      <c r="G895" s="2"/>
-      <c r="H895" s="2"/>
-      <c r="I895" s="2"/>
-      <c r="J895" s="2"/>
-      <c r="K895" s="2"/>
-      <c r="L895" s="2"/>
-      <c r="M895" s="2"/>
-      <c r="N895" s="2"/>
-      <c r="O895" s="2"/>
-      <c r="P895" s="2"/>
-      <c r="Q895" s="2"/>
-      <c r="R895" s="2"/>
-      <c r="S895" s="2"/>
-      <c r="T895" s="2"/>
-      <c r="U895" s="2"/>
-      <c r="V895" s="2"/>
-      <c r="W895" s="2"/>
-      <c r="X895" s="2"/>
-      <c r="Y895" s="2"/>
-      <c r="Z895" s="2"/>
-    </row>
-    <row r="896" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A896" s="2"/>
-      <c r="B896" s="2"/>
-      <c r="C896" s="2"/>
-      <c r="D896" s="2"/>
-      <c r="E896" s="2"/>
-      <c r="F896" s="2"/>
-      <c r="G896" s="2"/>
-      <c r="H896" s="2"/>
-      <c r="I896" s="2"/>
-      <c r="J896" s="2"/>
-      <c r="K896" s="2"/>
-      <c r="L896" s="2"/>
-      <c r="M896" s="2"/>
-      <c r="N896" s="2"/>
-      <c r="O896" s="2"/>
-      <c r="P896" s="2"/>
-      <c r="Q896" s="2"/>
-      <c r="R896" s="2"/>
-      <c r="S896" s="2"/>
-      <c r="T896" s="2"/>
-      <c r="U896" s="2"/>
-      <c r="V896" s="2"/>
-      <c r="W896" s="2"/>
-      <c r="X896" s="2"/>
-      <c r="Y896" s="2"/>
-      <c r="Z896" s="2"/>
-    </row>
-    <row r="897" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A897" s="2"/>
-      <c r="B897" s="2"/>
-      <c r="C897" s="2"/>
-      <c r="D897" s="2"/>
-      <c r="E897" s="2"/>
-      <c r="F897" s="2"/>
-      <c r="G897" s="2"/>
-      <c r="H897" s="2"/>
-      <c r="I897" s="2"/>
-      <c r="J897" s="2"/>
-      <c r="K897" s="2"/>
-      <c r="L897" s="2"/>
-      <c r="M897" s="2"/>
-      <c r="N897" s="2"/>
-      <c r="O897" s="2"/>
-      <c r="P897" s="2"/>
-      <c r="Q897" s="2"/>
-      <c r="R897" s="2"/>
-      <c r="S897" s="2"/>
-      <c r="T897" s="2"/>
-      <c r="U897" s="2"/>
-      <c r="V897" s="2"/>
-      <c r="W897" s="2"/>
-      <c r="X897" s="2"/>
-      <c r="Y897" s="2"/>
-      <c r="Z897" s="2"/>
-    </row>
-    <row r="898" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A898" s="2"/>
-      <c r="B898" s="2"/>
-      <c r="C898" s="2"/>
-      <c r="D898" s="2"/>
-      <c r="E898" s="2"/>
-      <c r="F898" s="2"/>
-      <c r="G898" s="2"/>
-      <c r="H898" s="2"/>
-      <c r="I898" s="2"/>
-      <c r="J898" s="2"/>
-      <c r="K898" s="2"/>
-      <c r="L898" s="2"/>
-      <c r="M898" s="2"/>
-      <c r="N898" s="2"/>
-      <c r="O898" s="2"/>
-      <c r="P898" s="2"/>
-      <c r="Q898" s="2"/>
-      <c r="R898" s="2"/>
-      <c r="S898" s="2"/>
-      <c r="T898" s="2"/>
-      <c r="U898" s="2"/>
-      <c r="V898" s="2"/>
-      <c r="W898" s="2"/>
-      <c r="X898" s="2"/>
-      <c r="Y898" s="2"/>
-      <c r="Z898" s="2"/>
-    </row>
-    <row r="899" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A899" s="2"/>
-      <c r="B899" s="2"/>
-      <c r="C899" s="2"/>
-      <c r="D899" s="2"/>
-      <c r="E899" s="2"/>
-      <c r="F899" s="2"/>
-      <c r="G899" s="2"/>
-      <c r="H899" s="2"/>
-      <c r="I899" s="2"/>
-      <c r="J899" s="2"/>
-      <c r="K899" s="2"/>
-      <c r="L899" s="2"/>
-      <c r="M899" s="2"/>
-      <c r="N899" s="2"/>
-      <c r="O899" s="2"/>
-      <c r="P899" s="2"/>
-      <c r="Q899" s="2"/>
-      <c r="R899" s="2"/>
-      <c r="S899" s="2"/>
-      <c r="T899" s="2"/>
-      <c r="U899" s="2"/>
-      <c r="V899" s="2"/>
-      <c r="W899" s="2"/>
-      <c r="X899" s="2"/>
-      <c r="Y899" s="2"/>
-      <c r="Z899" s="2"/>
-    </row>
-    <row r="900" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A900" s="2"/>
-      <c r="B900" s="2"/>
-      <c r="C900" s="2"/>
-      <c r="D900" s="2"/>
-      <c r="E900" s="2"/>
-      <c r="F900" s="2"/>
-      <c r="G900" s="2"/>
-      <c r="H900" s="2"/>
-      <c r="I900" s="2"/>
-      <c r="J900" s="2"/>
-      <c r="K900" s="2"/>
-      <c r="L900" s="2"/>
-      <c r="M900" s="2"/>
-      <c r="N900" s="2"/>
-      <c r="O900" s="2"/>
-      <c r="P900" s="2"/>
-      <c r="Q900" s="2"/>
-      <c r="R900" s="2"/>
-      <c r="S900" s="2"/>
-      <c r="T900" s="2"/>
-      <c r="U900" s="2"/>
-      <c r="V900" s="2"/>
-      <c r="W900" s="2"/>
-      <c r="X900" s="2"/>
-      <c r="Y900" s="2"/>
-      <c r="Z900" s="2"/>
-    </row>
-    <row r="901" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A901" s="2"/>
-      <c r="B901" s="2"/>
-      <c r="C901" s="2"/>
-      <c r="D901" s="2"/>
-      <c r="E901" s="2"/>
-      <c r="F901" s="2"/>
-      <c r="G901" s="2"/>
-      <c r="H901" s="2"/>
-      <c r="I901" s="2"/>
-      <c r="J901" s="2"/>
-      <c r="K901" s="2"/>
-      <c r="L901" s="2"/>
-      <c r="M901" s="2"/>
-      <c r="N901" s="2"/>
-      <c r="O901" s="2"/>
-      <c r="P901" s="2"/>
-      <c r="Q901" s="2"/>
-      <c r="R901" s="2"/>
-      <c r="S901" s="2"/>
-      <c r="T901" s="2"/>
-      <c r="U901" s="2"/>
-      <c r="V901" s="2"/>
-      <c r="W901" s="2"/>
-      <c r="X901" s="2"/>
-      <c r="Y901" s="2"/>
-      <c r="Z901" s="2"/>
-    </row>
-    <row r="902" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A902" s="2"/>
-      <c r="B902" s="2"/>
-      <c r="C902" s="2"/>
-      <c r="D902" s="2"/>
-      <c r="E902" s="2"/>
-      <c r="F902" s="2"/>
-      <c r="G902" s="2"/>
-      <c r="H902" s="2"/>
-      <c r="I902" s="2"/>
-      <c r="J902" s="2"/>
-      <c r="K902" s="2"/>
-      <c r="L902" s="2"/>
-      <c r="M902" s="2"/>
-      <c r="N902" s="2"/>
-      <c r="O902" s="2"/>
-      <c r="P902" s="2"/>
-      <c r="Q902" s="2"/>
-      <c r="R902" s="2"/>
-      <c r="S902" s="2"/>
-      <c r="T902" s="2"/>
-      <c r="U902" s="2"/>
-      <c r="V902" s="2"/>
-      <c r="W902" s="2"/>
-      <c r="X902" s="2"/>
-      <c r="Y902" s="2"/>
-      <c r="Z902" s="2"/>
-    </row>
-    <row r="903" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A903" s="2"/>
-      <c r="B903" s="2"/>
-      <c r="C903" s="2"/>
-      <c r="D903" s="2"/>
-      <c r="E903" s="2"/>
-      <c r="F903" s="2"/>
-      <c r="G903" s="2"/>
-      <c r="H903" s="2"/>
-      <c r="I903" s="2"/>
-      <c r="J903" s="2"/>
-      <c r="K903" s="2"/>
-      <c r="L903" s="2"/>
-      <c r="M903" s="2"/>
-      <c r="N903" s="2"/>
-      <c r="O903" s="2"/>
-      <c r="P903" s="2"/>
-      <c r="Q903" s="2"/>
-      <c r="R903" s="2"/>
-      <c r="S903" s="2"/>
-      <c r="T903" s="2"/>
-      <c r="U903" s="2"/>
-      <c r="V903" s="2"/>
-      <c r="W903" s="2"/>
-      <c r="X903" s="2"/>
-      <c r="Y903" s="2"/>
-      <c r="Z903" s="2"/>
-    </row>
-    <row r="904" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A904" s="2"/>
-      <c r="B904" s="2"/>
-      <c r="C904" s="2"/>
-      <c r="D904" s="2"/>
-      <c r="E904" s="2"/>
-      <c r="F904" s="2"/>
-      <c r="G904" s="2"/>
-      <c r="H904" s="2"/>
-      <c r="I904" s="2"/>
-      <c r="J904" s="2"/>
-      <c r="K904" s="2"/>
-      <c r="L904" s="2"/>
-      <c r="M904" s="2"/>
-      <c r="N904" s="2"/>
-      <c r="O904" s="2"/>
-      <c r="P904" s="2"/>
-      <c r="Q904" s="2"/>
-      <c r="R904" s="2"/>
-      <c r="S904" s="2"/>
-      <c r="T904" s="2"/>
-      <c r="U904" s="2"/>
-      <c r="V904" s="2"/>
-      <c r="W904" s="2"/>
-      <c r="X904" s="2"/>
-      <c r="Y904" s="2"/>
-      <c r="Z904" s="2"/>
-    </row>
-    <row r="905" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A905" s="2"/>
-      <c r="B905" s="2"/>
-      <c r="C905" s="2"/>
-      <c r="D905" s="2"/>
-      <c r="E905" s="2"/>
-      <c r="F905" s="2"/>
-      <c r="G905" s="2"/>
-      <c r="H905" s="2"/>
-      <c r="I905" s="2"/>
-      <c r="J905" s="2"/>
-      <c r="K905" s="2"/>
-      <c r="L905" s="2"/>
-      <c r="M905" s="2"/>
-      <c r="N905" s="2"/>
-      <c r="O905" s="2"/>
-      <c r="P905" s="2"/>
-      <c r="Q905" s="2"/>
-      <c r="R905" s="2"/>
-      <c r="S905" s="2"/>
-      <c r="T905" s="2"/>
-      <c r="U905" s="2"/>
-      <c r="V905" s="2"/>
-      <c r="W905" s="2"/>
-      <c r="X905" s="2"/>
-      <c r="Y905" s="2"/>
-      <c r="Z905" s="2"/>
-    </row>
-    <row r="906" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A906" s="2"/>
-      <c r="B906" s="2"/>
-      <c r="C906" s="2"/>
-      <c r="D906" s="2"/>
-      <c r="E906" s="2"/>
-      <c r="F906" s="2"/>
-      <c r="G906" s="2"/>
-      <c r="H906" s="2"/>
-      <c r="I906" s="2"/>
-      <c r="J906" s="2"/>
-      <c r="K906" s="2"/>
-      <c r="L906" s="2"/>
-      <c r="M906" s="2"/>
-      <c r="N906" s="2"/>
-      <c r="O906" s="2"/>
-      <c r="P906" s="2"/>
-      <c r="Q906" s="2"/>
-      <c r="R906" s="2"/>
-      <c r="S906" s="2"/>
-      <c r="T906" s="2"/>
-      <c r="U906" s="2"/>
-      <c r="V906" s="2"/>
-      <c r="W906" s="2"/>
-      <c r="X906" s="2"/>
-      <c r="Y906" s="2"/>
-      <c r="Z906" s="2"/>
-    </row>
-    <row r="907" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A907" s="2"/>
-      <c r="B907" s="2"/>
-      <c r="C907" s="2"/>
-      <c r="D907" s="2"/>
-      <c r="E907" s="2"/>
-      <c r="F907" s="2"/>
-      <c r="G907" s="2"/>
-      <c r="H907" s="2"/>
-      <c r="I907" s="2"/>
-      <c r="J907" s="2"/>
-      <c r="K907" s="2"/>
-      <c r="L907" s="2"/>
-      <c r="M907" s="2"/>
-      <c r="N907" s="2"/>
-      <c r="O907" s="2"/>
-      <c r="P907" s="2"/>
-      <c r="Q907" s="2"/>
-      <c r="R907" s="2"/>
-      <c r="S907" s="2"/>
-      <c r="T907" s="2"/>
-      <c r="U907" s="2"/>
-      <c r="V907" s="2"/>
-      <c r="W907" s="2"/>
-      <c r="X907" s="2"/>
-      <c r="Y907" s="2"/>
-      <c r="Z907" s="2"/>
-    </row>
-    <row r="908" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A908" s="2"/>
-      <c r="B908" s="2"/>
-      <c r="C908" s="2"/>
-      <c r="D908" s="2"/>
-      <c r="E908" s="2"/>
-      <c r="F908" s="2"/>
-      <c r="G908" s="2"/>
-      <c r="H908" s="2"/>
-      <c r="I908" s="2"/>
-      <c r="J908" s="2"/>
-      <c r="K908" s="2"/>
-      <c r="L908" s="2"/>
-      <c r="M908" s="2"/>
-      <c r="N908" s="2"/>
-      <c r="O908" s="2"/>
-      <c r="P908" s="2"/>
-      <c r="Q908" s="2"/>
-      <c r="R908" s="2"/>
-      <c r="S908" s="2"/>
-      <c r="T908" s="2"/>
-      <c r="U908" s="2"/>
-      <c r="V908" s="2"/>
-      <c r="W908" s="2"/>
-      <c r="X908" s="2"/>
-      <c r="Y908" s="2"/>
-      <c r="Z908" s="2"/>
-    </row>
-    <row r="909" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A909" s="2"/>
-      <c r="B909" s="2"/>
-      <c r="C909" s="2"/>
-      <c r="D909" s="2"/>
-      <c r="E909" s="2"/>
-      <c r="F909" s="2"/>
-      <c r="G909" s="2"/>
-      <c r="H909" s="2"/>
-      <c r="I909" s="2"/>
-      <c r="J909" s="2"/>
-      <c r="K909" s="2"/>
-      <c r="L909" s="2"/>
-      <c r="M909" s="2"/>
-      <c r="N909" s="2"/>
-      <c r="O909" s="2"/>
-      <c r="P909" s="2"/>
-      <c r="Q909" s="2"/>
-      <c r="R909" s="2"/>
-      <c r="S909" s="2"/>
-      <c r="T909" s="2"/>
-      <c r="U909" s="2"/>
-      <c r="V909" s="2"/>
-      <c r="W909" s="2"/>
-      <c r="X909" s="2"/>
-      <c r="Y909" s="2"/>
-      <c r="Z909" s="2"/>
-    </row>
-    <row r="910" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A910" s="2"/>
-      <c r="B910" s="2"/>
-      <c r="C910" s="2"/>
-      <c r="D910" s="2"/>
-      <c r="E910" s="2"/>
-      <c r="F910" s="2"/>
-      <c r="G910" s="2"/>
-      <c r="H910" s="2"/>
-      <c r="I910" s="2"/>
-      <c r="J910" s="2"/>
-      <c r="K910" s="2"/>
-      <c r="L910" s="2"/>
-      <c r="M910" s="2"/>
-      <c r="N910" s="2"/>
-      <c r="O910" s="2"/>
-      <c r="P910" s="2"/>
-      <c r="Q910" s="2"/>
-      <c r="R910" s="2"/>
-      <c r="S910" s="2"/>
-      <c r="T910" s="2"/>
-      <c r="U910" s="2"/>
-      <c r="V910" s="2"/>
-      <c r="W910" s="2"/>
-      <c r="X910" s="2"/>
-      <c r="Y910" s="2"/>
-      <c r="Z910" s="2"/>
-    </row>
-    <row r="911" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A911" s="2"/>
-      <c r="B911" s="2"/>
-      <c r="C911" s="2"/>
-      <c r="D911" s="2"/>
-      <c r="E911" s="2"/>
-      <c r="F911" s="2"/>
-      <c r="G911" s="2"/>
-      <c r="H911" s="2"/>
-      <c r="I911" s="2"/>
-      <c r="J911" s="2"/>
-      <c r="K911" s="2"/>
-      <c r="L911" s="2"/>
-      <c r="M911" s="2"/>
-      <c r="N911" s="2"/>
-      <c r="O911" s="2"/>
-      <c r="P911" s="2"/>
-      <c r="Q911" s="2"/>
-      <c r="R911" s="2"/>
-      <c r="S911" s="2"/>
-      <c r="T911" s="2"/>
-      <c r="U911" s="2"/>
-      <c r="V911" s="2"/>
-      <c r="W911" s="2"/>
-      <c r="X911" s="2"/>
-      <c r="Y911" s="2"/>
-      <c r="Z911" s="2"/>
-    </row>
-    <row r="912" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A912" s="2"/>
-      <c r="B912" s="2"/>
-      <c r="C912" s="2"/>
-      <c r="D912" s="2"/>
-      <c r="E912" s="2"/>
-      <c r="F912" s="2"/>
-      <c r="G912" s="2"/>
-      <c r="H912" s="2"/>
-      <c r="I912" s="2"/>
-      <c r="J912" s="2"/>
-      <c r="K912" s="2"/>
-      <c r="L912" s="2"/>
-      <c r="M912" s="2"/>
-      <c r="N912" s="2"/>
-      <c r="O912" s="2"/>
-      <c r="P912" s="2"/>
-      <c r="Q912" s="2"/>
-      <c r="R912" s="2"/>
-      <c r="S912" s="2"/>
-      <c r="T912" s="2"/>
-      <c r="U912" s="2"/>
-      <c r="V912" s="2"/>
-      <c r="W912" s="2"/>
-      <c r="X912" s="2"/>
-      <c r="Y912" s="2"/>
-      <c r="Z912" s="2"/>
-    </row>
-    <row r="913" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A913" s="2"/>
-      <c r="B913" s="2"/>
-      <c r="C913" s="2"/>
-      <c r="D913" s="2"/>
-      <c r="E913" s="2"/>
-      <c r="F913" s="2"/>
-      <c r="G913" s="2"/>
-      <c r="H913" s="2"/>
-      <c r="I913" s="2"/>
-      <c r="J913" s="2"/>
-      <c r="K913" s="2"/>
-      <c r="L913" s="2"/>
-      <c r="M913" s="2"/>
-      <c r="N913" s="2"/>
-      <c r="O913" s="2"/>
-      <c r="P913" s="2"/>
-      <c r="Q913" s="2"/>
-      <c r="R913" s="2"/>
-      <c r="S913" s="2"/>
-      <c r="T913" s="2"/>
-      <c r="U913" s="2"/>
-      <c r="V913" s="2"/>
-      <c r="W913" s="2"/>
-      <c r="X913" s="2"/>
-      <c r="Y913" s="2"/>
-      <c r="Z913" s="2"/>
-    </row>
-    <row r="914" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A914" s="2"/>
-      <c r="B914" s="2"/>
-      <c r="C914" s="2"/>
-      <c r="D914" s="2"/>
-      <c r="E914" s="2"/>
-      <c r="F914" s="2"/>
-      <c r="G914" s="2"/>
-      <c r="H914" s="2"/>
-      <c r="I914" s="2"/>
-      <c r="J914" s="2"/>
-      <c r="K914" s="2"/>
-      <c r="L914" s="2"/>
-      <c r="M914" s="2"/>
-      <c r="N914" s="2"/>
-      <c r="O914" s="2"/>
-      <c r="P914" s="2"/>
-      <c r="Q914" s="2"/>
-      <c r="R914" s="2"/>
-      <c r="S914" s="2"/>
-      <c r="T914" s="2"/>
-      <c r="U914" s="2"/>
-      <c r="V914" s="2"/>
-      <c r="W914" s="2"/>
-      <c r="X914" s="2"/>
-      <c r="Y914" s="2"/>
-      <c r="Z914" s="2"/>
-    </row>
-    <row r="915" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A915" s="2"/>
-      <c r="B915" s="2"/>
-      <c r="C915" s="2"/>
-      <c r="D915" s="2"/>
-      <c r="E915" s="2"/>
-      <c r="F915" s="2"/>
-      <c r="G915" s="2"/>
-      <c r="H915" s="2"/>
-      <c r="I915" s="2"/>
-      <c r="J915" s="2"/>
-      <c r="K915" s="2"/>
-      <c r="L915" s="2"/>
-      <c r="M915" s="2"/>
-      <c r="N915" s="2"/>
-      <c r="O915" s="2"/>
-      <c r="P915" s="2"/>
-      <c r="Q915" s="2"/>
-      <c r="R915" s="2"/>
-      <c r="S915" s="2"/>
-      <c r="T915" s="2"/>
-      <c r="U915" s="2"/>
-      <c r="V915" s="2"/>
-      <c r="W915" s="2"/>
-      <c r="X915" s="2"/>
-      <c r="Y915" s="2"/>
-      <c r="Z915" s="2"/>
-    </row>
-    <row r="916" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A916" s="2"/>
-      <c r="B916" s="2"/>
-      <c r="C916" s="2"/>
-      <c r="D916" s="2"/>
-      <c r="E916" s="2"/>
-      <c r="F916" s="2"/>
-      <c r="G916" s="2"/>
-      <c r="H916" s="2"/>
-      <c r="I916" s="2"/>
-      <c r="J916" s="2"/>
-      <c r="K916" s="2"/>
-      <c r="L916" s="2"/>
-      <c r="M916" s="2"/>
-      <c r="N916" s="2"/>
-      <c r="O916" s="2"/>
-      <c r="P916" s="2"/>
-      <c r="Q916" s="2"/>
-      <c r="R916" s="2"/>
-      <c r="S916" s="2"/>
-      <c r="T916" s="2"/>
-      <c r="U916" s="2"/>
-      <c r="V916" s="2"/>
-      <c r="W916" s="2"/>
-      <c r="X916" s="2"/>
-      <c r="Y916" s="2"/>
-      <c r="Z916" s="2"/>
-    </row>
-    <row r="917" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A917" s="2"/>
-      <c r="B917" s="2"/>
-      <c r="C917" s="2"/>
-      <c r="D917" s="2"/>
-      <c r="E917" s="2"/>
-      <c r="F917" s="2"/>
-      <c r="G917" s="2"/>
-      <c r="H917" s="2"/>
-      <c r="I917" s="2"/>
-      <c r="J917" s="2"/>
-      <c r="K917" s="2"/>
-      <c r="L917" s="2"/>
-      <c r="M917" s="2"/>
-      <c r="N917" s="2"/>
-      <c r="O917" s="2"/>
-      <c r="P917" s="2"/>
-      <c r="Q917" s="2"/>
-      <c r="R917" s="2"/>
-      <c r="S917" s="2"/>
-      <c r="T917" s="2"/>
-      <c r="U917" s="2"/>
-      <c r="V917" s="2"/>
-      <c r="W917" s="2"/>
-      <c r="X917" s="2"/>
-      <c r="Y917" s="2"/>
-      <c r="Z917" s="2"/>
-    </row>
-    <row r="918" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A918" s="2"/>
-      <c r="B918" s="2"/>
-      <c r="C918" s="2"/>
-      <c r="D918" s="2"/>
-      <c r="E918" s="2"/>
-      <c r="F918" s="2"/>
-      <c r="G918" s="2"/>
-      <c r="H918" s="2"/>
-      <c r="I918" s="2"/>
-      <c r="J918" s="2"/>
-      <c r="K918" s="2"/>
-      <c r="L918" s="2"/>
-      <c r="M918" s="2"/>
-      <c r="N918" s="2"/>
-      <c r="O918" s="2"/>
-      <c r="P918" s="2"/>
-      <c r="Q918" s="2"/>
-      <c r="R918" s="2"/>
-      <c r="S918" s="2"/>
-      <c r="T918" s="2"/>
-      <c r="U918" s="2"/>
-      <c r="V918" s="2"/>
-      <c r="W918" s="2"/>
-      <c r="X918" s="2"/>
-      <c r="Y918" s="2"/>
-      <c r="Z918" s="2"/>
-    </row>
-    <row r="919" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A919" s="2"/>
-      <c r="B919" s="2"/>
-      <c r="C919" s="2"/>
-      <c r="D919" s="2"/>
-      <c r="E919" s="2"/>
-      <c r="F919" s="2"/>
-      <c r="G919" s="2"/>
-      <c r="H919" s="2"/>
-      <c r="I919" s="2"/>
-      <c r="J919" s="2"/>
-      <c r="K919" s="2"/>
-      <c r="L919" s="2"/>
-      <c r="M919" s="2"/>
-      <c r="N919" s="2"/>
-      <c r="O919" s="2"/>
-      <c r="P919" s="2"/>
-      <c r="Q919" s="2"/>
-      <c r="R919" s="2"/>
-      <c r="S919" s="2"/>
-      <c r="T919" s="2"/>
-      <c r="U919" s="2"/>
-      <c r="V919" s="2"/>
-      <c r="W919" s="2"/>
-      <c r="X919" s="2"/>
-      <c r="Y919" s="2"/>
-      <c r="Z919" s="2"/>
-    </row>
-    <row r="920" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A920" s="2"/>
-      <c r="B920" s="2"/>
-      <c r="C920" s="2"/>
-      <c r="D920" s="2"/>
-      <c r="E920" s="2"/>
-      <c r="F920" s="2"/>
-      <c r="G920" s="2"/>
-      <c r="H920" s="2"/>
-      <c r="I920" s="2"/>
-      <c r="J920" s="2"/>
-      <c r="K920" s="2"/>
-      <c r="L920" s="2"/>
-      <c r="M920" s="2"/>
-      <c r="N920" s="2"/>
-      <c r="O920" s="2"/>
-      <c r="P920" s="2"/>
-      <c r="Q920" s="2"/>
-      <c r="R920" s="2"/>
-      <c r="S920" s="2"/>
-      <c r="T920" s="2"/>
-      <c r="U920" s="2"/>
-      <c r="V920" s="2"/>
-      <c r="W920" s="2"/>
-      <c r="X920" s="2"/>
-      <c r="Y920" s="2"/>
-      <c r="Z920" s="2"/>
-    </row>
-    <row r="921" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A921" s="2"/>
-      <c r="B921" s="2"/>
-      <c r="C921" s="2"/>
-      <c r="D921" s="2"/>
-      <c r="E921" s="2"/>
-      <c r="F921" s="2"/>
-      <c r="G921" s="2"/>
-      <c r="H921" s="2"/>
-      <c r="I921" s="2"/>
-      <c r="J921" s="2"/>
-      <c r="K921" s="2"/>
-      <c r="L921" s="2"/>
-      <c r="M921" s="2"/>
-      <c r="N921" s="2"/>
-      <c r="O921" s="2"/>
-      <c r="P921" s="2"/>
-      <c r="Q921" s="2"/>
-      <c r="R921" s="2"/>
-      <c r="S921" s="2"/>
-      <c r="T921" s="2"/>
-      <c r="U921" s="2"/>
-      <c r="V921" s="2"/>
-      <c r="W921" s="2"/>
-      <c r="X921" s="2"/>
-      <c r="Y921" s="2"/>
-      <c r="Z921" s="2"/>
-    </row>
-    <row r="922" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A922" s="2"/>
-      <c r="B922" s="2"/>
-      <c r="C922" s="2"/>
-      <c r="D922" s="2"/>
-      <c r="E922" s="2"/>
-      <c r="F922" s="2"/>
-      <c r="G922" s="2"/>
-      <c r="H922" s="2"/>
-      <c r="I922" s="2"/>
-      <c r="J922" s="2"/>
-      <c r="K922" s="2"/>
-      <c r="L922" s="2"/>
-      <c r="M922" s="2"/>
-      <c r="N922" s="2"/>
-      <c r="O922" s="2"/>
-      <c r="P922" s="2"/>
-      <c r="Q922" s="2"/>
-      <c r="R922" s="2"/>
-      <c r="S922" s="2"/>
-      <c r="T922" s="2"/>
-      <c r="U922" s="2"/>
-      <c r="V922" s="2"/>
-      <c r="W922" s="2"/>
-      <c r="X922" s="2"/>
-      <c r="Y922" s="2"/>
-      <c r="Z922" s="2"/>
-    </row>
-    <row r="923" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A923" s="2"/>
-      <c r="B923" s="2"/>
-      <c r="C923" s="2"/>
-      <c r="D923" s="2"/>
-      <c r="E923" s="2"/>
-      <c r="F923" s="2"/>
-      <c r="G923" s="2"/>
-      <c r="H923" s="2"/>
-      <c r="I923" s="2"/>
-      <c r="J923" s="2"/>
-      <c r="K923" s="2"/>
-      <c r="L923" s="2"/>
-      <c r="M923" s="2"/>
-      <c r="N923" s="2"/>
-      <c r="O923" s="2"/>
-      <c r="P923" s="2"/>
-      <c r="Q923" s="2"/>
-      <c r="R923" s="2"/>
-      <c r="S923" s="2"/>
-      <c r="T923" s="2"/>
-      <c r="U923" s="2"/>
-      <c r="V923" s="2"/>
-      <c r="W923" s="2"/>
-      <c r="X923" s="2"/>
-      <c r="Y923" s="2"/>
-      <c r="Z923" s="2"/>
-    </row>
-    <row r="924" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A924" s="2"/>
-      <c r="B924" s="2"/>
-      <c r="C924" s="2"/>
-      <c r="D924" s="2"/>
-      <c r="E924" s="2"/>
-      <c r="F924" s="2"/>
-      <c r="G924" s="2"/>
-      <c r="H924" s="2"/>
-      <c r="I924" s="2"/>
-      <c r="J924" s="2"/>
-      <c r="K924" s="2"/>
-      <c r="L924" s="2"/>
-      <c r="M924" s="2"/>
-      <c r="N924" s="2"/>
-      <c r="O924" s="2"/>
-      <c r="P924" s="2"/>
-      <c r="Q924" s="2"/>
-      <c r="R924" s="2"/>
-      <c r="S924" s="2"/>
-      <c r="T924" s="2"/>
-      <c r="U924" s="2"/>
-      <c r="V924" s="2"/>
-      <c r="W924" s="2"/>
-      <c r="X924" s="2"/>
-      <c r="Y924" s="2"/>
-      <c r="Z924" s="2"/>
-    </row>
-    <row r="925" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A925" s="2"/>
-      <c r="B925" s="2"/>
-      <c r="C925" s="2"/>
-      <c r="D925" s="2"/>
-      <c r="E925" s="2"/>
-      <c r="F925" s="2"/>
-      <c r="G925" s="2"/>
-      <c r="H925" s="2"/>
-      <c r="I925" s="2"/>
-      <c r="J925" s="2"/>
-      <c r="K925" s="2"/>
-      <c r="L925" s="2"/>
-      <c r="M925" s="2"/>
-      <c r="N925" s="2"/>
-      <c r="O925" s="2"/>
-      <c r="P925" s="2"/>
-      <c r="Q925" s="2"/>
-      <c r="R925" s="2"/>
-      <c r="S925" s="2"/>
-      <c r="T925" s="2"/>
-      <c r="U925" s="2"/>
-      <c r="V925" s="2"/>
-      <c r="W925" s="2"/>
-      <c r="X925" s="2"/>
-      <c r="Y925" s="2"/>
-      <c r="Z925" s="2"/>
-    </row>
-    <row r="926" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A926" s="2"/>
-      <c r="B926" s="2"/>
-      <c r="C926" s="2"/>
-      <c r="D926" s="2"/>
-      <c r="E926" s="2"/>
-      <c r="F926" s="2"/>
-      <c r="G926" s="2"/>
-      <c r="H926" s="2"/>
-      <c r="I926" s="2"/>
-      <c r="J926" s="2"/>
-      <c r="K926" s="2"/>
-      <c r="L926" s="2"/>
-      <c r="M926" s="2"/>
-      <c r="N926" s="2"/>
-      <c r="O926" s="2"/>
-      <c r="P926" s="2"/>
-      <c r="Q926" s="2"/>
-      <c r="R926" s="2"/>
-      <c r="S926" s="2"/>
-      <c r="T926" s="2"/>
-      <c r="U926" s="2"/>
-      <c r="V926" s="2"/>
-      <c r="W926" s="2"/>
-      <c r="X926" s="2"/>
-      <c r="Y926" s="2"/>
-      <c r="Z926" s="2"/>
-    </row>
-    <row r="927" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A927" s="2"/>
-      <c r="B927" s="2"/>
-      <c r="C927" s="2"/>
-      <c r="D927" s="2"/>
-      <c r="E927" s="2"/>
-      <c r="F927" s="2"/>
-      <c r="G927" s="2"/>
-      <c r="H927" s="2"/>
-      <c r="I927" s="2"/>
-      <c r="J927" s="2"/>
-      <c r="K927" s="2"/>
-      <c r="L927" s="2"/>
-      <c r="M927" s="2"/>
-      <c r="N927" s="2"/>
-      <c r="O927" s="2"/>
-      <c r="P927" s="2"/>
-      <c r="Q927" s="2"/>
-      <c r="R927" s="2"/>
-      <c r="S927" s="2"/>
-      <c r="T927" s="2"/>
-      <c r="U927" s="2"/>
-      <c r="V927" s="2"/>
-      <c r="W927" s="2"/>
-      <c r="X927" s="2"/>
-      <c r="Y927" s="2"/>
-      <c r="Z927" s="2"/>
-    </row>
-    <row r="928" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A928" s="2"/>
-      <c r="B928" s="2"/>
-      <c r="C928" s="2"/>
-      <c r="D928" s="2"/>
-      <c r="E928" s="2"/>
-      <c r="F928" s="2"/>
-      <c r="G928" s="2"/>
-      <c r="H928" s="2"/>
-      <c r="I928" s="2"/>
-      <c r="J928" s="2"/>
-      <c r="K928" s="2"/>
-      <c r="L928" s="2"/>
-      <c r="M928" s="2"/>
-      <c r="N928" s="2"/>
-      <c r="O928" s="2"/>
-      <c r="P928" s="2"/>
-      <c r="Q928" s="2"/>
-      <c r="R928" s="2"/>
-      <c r="S928" s="2"/>
-      <c r="T928" s="2"/>
-      <c r="U928" s="2"/>
-      <c r="V928" s="2"/>
-      <c r="W928" s="2"/>
-      <c r="X928" s="2"/>
-      <c r="Y928" s="2"/>
-      <c r="Z928" s="2"/>
-    </row>
-    <row r="929" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A929" s="2"/>
-      <c r="B929" s="2"/>
-      <c r="C929" s="2"/>
-      <c r="D929" s="2"/>
-      <c r="E929" s="2"/>
-      <c r="F929" s="2"/>
-      <c r="G929" s="2"/>
-      <c r="H929" s="2"/>
-      <c r="I929" s="2"/>
-      <c r="J929" s="2"/>
-      <c r="K929" s="2"/>
-      <c r="L929" s="2"/>
-      <c r="M929" s="2"/>
-      <c r="N929" s="2"/>
-      <c r="O929" s="2"/>
-      <c r="P929" s="2"/>
-      <c r="Q929" s="2"/>
-      <c r="R929" s="2"/>
-      <c r="S929" s="2"/>
-      <c r="T929" s="2"/>
-      <c r="U929" s="2"/>
-      <c r="V929" s="2"/>
-      <c r="W929" s="2"/>
-      <c r="X929" s="2"/>
-      <c r="Y929" s="2"/>
-      <c r="Z929" s="2"/>
-    </row>
-    <row r="930" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A930" s="2"/>
-      <c r="B930" s="2"/>
-      <c r="C930" s="2"/>
-      <c r="D930" s="2"/>
-      <c r="E930" s="2"/>
-      <c r="F930" s="2"/>
-      <c r="G930" s="2"/>
-      <c r="H930" s="2"/>
-      <c r="I930" s="2"/>
-      <c r="J930" s="2"/>
-      <c r="K930" s="2"/>
-      <c r="L930" s="2"/>
-      <c r="M930" s="2"/>
-      <c r="N930" s="2"/>
-      <c r="O930" s="2"/>
-      <c r="P930" s="2"/>
-      <c r="Q930" s="2"/>
-      <c r="R930" s="2"/>
-      <c r="S930" s="2"/>
-      <c r="T930" s="2"/>
-      <c r="U930" s="2"/>
-      <c r="V930" s="2"/>
-      <c r="W930" s="2"/>
-      <c r="X930" s="2"/>
-      <c r="Y930" s="2"/>
-      <c r="Z930" s="2"/>
-    </row>
-    <row r="931" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A931" s="2"/>
-      <c r="B931" s="2"/>
-      <c r="C931" s="2"/>
-      <c r="D931" s="2"/>
-      <c r="E931" s="2"/>
-      <c r="F931" s="2"/>
-      <c r="G931" s="2"/>
-      <c r="H931" s="2"/>
-      <c r="I931" s="2"/>
-      <c r="J931" s="2"/>
-      <c r="K931" s="2"/>
-      <c r="L931" s="2"/>
-      <c r="M931" s="2"/>
-      <c r="N931" s="2"/>
-      <c r="O931" s="2"/>
-      <c r="P931" s="2"/>
-      <c r="Q931" s="2"/>
-      <c r="R931" s="2"/>
-      <c r="S931" s="2"/>
-      <c r="T931" s="2"/>
-      <c r="U931" s="2"/>
-      <c r="V931" s="2"/>
-      <c r="W931" s="2"/>
-      <c r="X931" s="2"/>
-      <c r="Y931" s="2"/>
-      <c r="Z931" s="2"/>
-    </row>
-    <row r="932" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A932" s="2"/>
-      <c r="B932" s="2"/>
-      <c r="C932" s="2"/>
-      <c r="D932" s="2"/>
-      <c r="E932" s="2"/>
-      <c r="F932" s="2"/>
-      <c r="G932" s="2"/>
-      <c r="H932" s="2"/>
-      <c r="I932" s="2"/>
-      <c r="J932" s="2"/>
-      <c r="K932" s="2"/>
-      <c r="L932" s="2"/>
-      <c r="M932" s="2"/>
-      <c r="N932" s="2"/>
-      <c r="O932" s="2"/>
-      <c r="P932" s="2"/>
-      <c r="Q932" s="2"/>
-      <c r="R932" s="2"/>
-      <c r="S932" s="2"/>
-      <c r="T932" s="2"/>
-      <c r="U932" s="2"/>
-      <c r="V932" s="2"/>
-      <c r="W932" s="2"/>
-      <c r="X932" s="2"/>
-      <c r="Y932" s="2"/>
-      <c r="Z932" s="2"/>
-    </row>
-    <row r="933" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A933" s="2"/>
-      <c r="B933" s="2"/>
-      <c r="C933" s="2"/>
-      <c r="D933" s="2"/>
-      <c r="E933" s="2"/>
-      <c r="F933" s="2"/>
-      <c r="G933" s="2"/>
-      <c r="H933" s="2"/>
-      <c r="I933" s="2"/>
-      <c r="J933" s="2"/>
-      <c r="K933" s="2"/>
-      <c r="L933" s="2"/>
-      <c r="M933" s="2"/>
-      <c r="N933" s="2"/>
-      <c r="O933" s="2"/>
-      <c r="P933" s="2"/>
-      <c r="Q933" s="2"/>
-      <c r="R933" s="2"/>
-      <c r="S933" s="2"/>
-      <c r="T933" s="2"/>
-      <c r="U933" s="2"/>
-      <c r="V933" s="2"/>
-      <c r="W933" s="2"/>
-      <c r="X933" s="2"/>
-      <c r="Y933" s="2"/>
-      <c r="Z933" s="2"/>
-    </row>
-    <row r="934" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A934" s="2"/>
-      <c r="B934" s="2"/>
-      <c r="C934" s="2"/>
-      <c r="D934" s="2"/>
-      <c r="E934" s="2"/>
-      <c r="F934" s="2"/>
-      <c r="G934" s="2"/>
-      <c r="H934" s="2"/>
-      <c r="I934" s="2"/>
-      <c r="J934" s="2"/>
-      <c r="K934" s="2"/>
-      <c r="L934" s="2"/>
-      <c r="M934" s="2"/>
-      <c r="N934" s="2"/>
-      <c r="O934" s="2"/>
-      <c r="P934" s="2"/>
-      <c r="Q934" s="2"/>
-      <c r="R934" s="2"/>
-      <c r="S934" s="2"/>
-      <c r="T934" s="2"/>
-      <c r="U934" s="2"/>
-      <c r="V934" s="2"/>
-      <c r="W934" s="2"/>
-      <c r="X934" s="2"/>
-      <c r="Y934" s="2"/>
-      <c r="Z934" s="2"/>
-    </row>
-    <row r="935" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A935" s="2"/>
-      <c r="B935" s="2"/>
-      <c r="C935" s="2"/>
-      <c r="D935" s="2"/>
-      <c r="E935" s="2"/>
-      <c r="F935" s="2"/>
-      <c r="G935" s="2"/>
-      <c r="H935" s="2"/>
-      <c r="I935" s="2"/>
-      <c r="J935" s="2"/>
-      <c r="K935" s="2"/>
-      <c r="L935" s="2"/>
-      <c r="M935" s="2"/>
-      <c r="N935" s="2"/>
-      <c r="O935" s="2"/>
-      <c r="P935" s="2"/>
-      <c r="Q935" s="2"/>
-      <c r="R935" s="2"/>
-      <c r="S935" s="2"/>
-      <c r="T935" s="2"/>
-      <c r="U935" s="2"/>
-      <c r="V935" s="2"/>
-      <c r="W935" s="2"/>
-      <c r="X935" s="2"/>
-      <c r="Y935" s="2"/>
-      <c r="Z935" s="2"/>
-    </row>
-    <row r="936" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A936" s="2"/>
-      <c r="B936" s="2"/>
-      <c r="C936" s="2"/>
-      <c r="D936" s="2"/>
-      <c r="E936" s="2"/>
-      <c r="F936" s="2"/>
-      <c r="G936" s="2"/>
-      <c r="H936" s="2"/>
-      <c r="I936" s="2"/>
-      <c r="J936" s="2"/>
-      <c r="K936" s="2"/>
-      <c r="L936" s="2"/>
-      <c r="M936" s="2"/>
-      <c r="N936" s="2"/>
-      <c r="O936" s="2"/>
-      <c r="P936" s="2"/>
-      <c r="Q936" s="2"/>
-      <c r="R936" s="2"/>
-      <c r="S936" s="2"/>
-      <c r="T936" s="2"/>
-      <c r="U936" s="2"/>
-      <c r="V936" s="2"/>
-      <c r="W936" s="2"/>
-      <c r="X936" s="2"/>
-      <c r="Y936" s="2"/>
-      <c r="Z936" s="2"/>
-    </row>
-    <row r="937" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A937" s="2"/>
-      <c r="B937" s="2"/>
-      <c r="C937" s="2"/>
-      <c r="D937" s="2"/>
-      <c r="E937" s="2"/>
-      <c r="F937" s="2"/>
-      <c r="G937" s="2"/>
-      <c r="H937" s="2"/>
-      <c r="I937" s="2"/>
-      <c r="J937" s="2"/>
-      <c r="K937" s="2"/>
-      <c r="L937" s="2"/>
-      <c r="M937" s="2"/>
-      <c r="N937" s="2"/>
-      <c r="O937" s="2"/>
-      <c r="P937" s="2"/>
-      <c r="Q937" s="2"/>
-      <c r="R937" s="2"/>
-      <c r="S937" s="2"/>
-      <c r="T937" s="2"/>
-      <c r="U937" s="2"/>
-      <c r="V937" s="2"/>
-      <c r="W937" s="2"/>
-      <c r="X937" s="2"/>
-      <c r="Y937" s="2"/>
-      <c r="Z937" s="2"/>
-    </row>
-    <row r="938" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A938" s="2"/>
-      <c r="B938" s="2"/>
-      <c r="C938" s="2"/>
-      <c r="D938" s="2"/>
-      <c r="E938" s="2"/>
-      <c r="F938" s="2"/>
-      <c r="G938" s="2"/>
-      <c r="H938" s="2"/>
-      <c r="I938" s="2"/>
-      <c r="J938" s="2"/>
-      <c r="K938" s="2"/>
-      <c r="L938" s="2"/>
-      <c r="M938" s="2"/>
-      <c r="N938" s="2"/>
-      <c r="O938" s="2"/>
-      <c r="P938" s="2"/>
-      <c r="Q938" s="2"/>
-      <c r="R938" s="2"/>
-      <c r="S938" s="2"/>
-      <c r="T938" s="2"/>
-      <c r="U938" s="2"/>
-      <c r="V938" s="2"/>
-      <c r="W938" s="2"/>
-      <c r="X938" s="2"/>
-      <c r="Y938" s="2"/>
-      <c r="Z938" s="2"/>
-    </row>
-    <row r="939" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A939" s="2"/>
-      <c r="B939" s="2"/>
-      <c r="C939" s="2"/>
-      <c r="D939" s="2"/>
-      <c r="E939" s="2"/>
-      <c r="F939" s="2"/>
-      <c r="G939" s="2"/>
-      <c r="H939" s="2"/>
-      <c r="I939" s="2"/>
-      <c r="J939" s="2"/>
-      <c r="K939" s="2"/>
-      <c r="L939" s="2"/>
-      <c r="M939" s="2"/>
-      <c r="N939" s="2"/>
-      <c r="O939" s="2"/>
-      <c r="P939" s="2"/>
-      <c r="Q939" s="2"/>
-      <c r="R939" s="2"/>
-      <c r="S939" s="2"/>
-      <c r="T939" s="2"/>
-      <c r="U939" s="2"/>
-      <c r="V939" s="2"/>
-      <c r="W939" s="2"/>
-      <c r="X939" s="2"/>
-      <c r="Y939" s="2"/>
-      <c r="Z939" s="2"/>
-    </row>
-    <row r="940" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A940" s="2"/>
-      <c r="B940" s="2"/>
-      <c r="C940" s="2"/>
-      <c r="D940" s="2"/>
-      <c r="E940" s="2"/>
-      <c r="F940" s="2"/>
-      <c r="G940" s="2"/>
-      <c r="H940" s="2"/>
-      <c r="I940" s="2"/>
-      <c r="J940" s="2"/>
-      <c r="K940" s="2"/>
-      <c r="L940" s="2"/>
-      <c r="M940" s="2"/>
-      <c r="N940" s="2"/>
-      <c r="O940" s="2"/>
-      <c r="P940" s="2"/>
-      <c r="Q940" s="2"/>
-      <c r="R940" s="2"/>
-      <c r="S940" s="2"/>
-      <c r="T940" s="2"/>
-      <c r="U940" s="2"/>
-      <c r="V940" s="2"/>
-      <c r="W940" s="2"/>
-      <c r="X940" s="2"/>
-      <c r="Y940" s="2"/>
-      <c r="Z940" s="2"/>
-    </row>
-    <row r="941" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A941" s="2"/>
-      <c r="B941" s="2"/>
-      <c r="C941" s="2"/>
-      <c r="D941" s="2"/>
-      <c r="E941" s="2"/>
-      <c r="F941" s="2"/>
-      <c r="G941" s="2"/>
-      <c r="H941" s="2"/>
-      <c r="I941" s="2"/>
-      <c r="J941" s="2"/>
-      <c r="K941" s="2"/>
-      <c r="L941" s="2"/>
-      <c r="M941" s="2"/>
-      <c r="N941" s="2"/>
-      <c r="O941" s="2"/>
-      <c r="P941" s="2"/>
-      <c r="Q941" s="2"/>
-      <c r="R941" s="2"/>
-      <c r="S941" s="2"/>
-      <c r="T941" s="2"/>
-      <c r="U941" s="2"/>
-      <c r="V941" s="2"/>
-      <c r="W941" s="2"/>
-      <c r="X941" s="2"/>
-      <c r="Y941" s="2"/>
-      <c r="Z941" s="2"/>
-    </row>
-    <row r="942" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A942" s="2"/>
-      <c r="B942" s="2"/>
-      <c r="C942" s="2"/>
-      <c r="D942" s="2"/>
-      <c r="E942" s="2"/>
-      <c r="F942" s="2"/>
-      <c r="G942" s="2"/>
-      <c r="H942" s="2"/>
-      <c r="I942" s="2"/>
-      <c r="J942" s="2"/>
-      <c r="K942" s="2"/>
-      <c r="L942" s="2"/>
-      <c r="M942" s="2"/>
-      <c r="N942" s="2"/>
-      <c r="O942" s="2"/>
-      <c r="P942" s="2"/>
-      <c r="Q942" s="2"/>
-      <c r="R942" s="2"/>
-      <c r="S942" s="2"/>
-      <c r="T942" s="2"/>
-      <c r="U942" s="2"/>
-      <c r="V942" s="2"/>
-      <c r="W942" s="2"/>
-      <c r="X942" s="2"/>
-      <c r="Y942" s="2"/>
-      <c r="Z942" s="2"/>
-    </row>
-    <row r="943" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A943" s="2"/>
-      <c r="B943" s="2"/>
-      <c r="C943" s="2"/>
-      <c r="D943" s="2"/>
-      <c r="E943" s="2"/>
-      <c r="F943" s="2"/>
-      <c r="G943" s="2"/>
-      <c r="H943" s="2"/>
-      <c r="I943" s="2"/>
-      <c r="J943" s="2"/>
-      <c r="K943" s="2"/>
-      <c r="L943" s="2"/>
-      <c r="M943" s="2"/>
-      <c r="N943" s="2"/>
-      <c r="O943" s="2"/>
-      <c r="P943" s="2"/>
-      <c r="Q943" s="2"/>
-      <c r="R943" s="2"/>
-      <c r="S943" s="2"/>
-      <c r="T943" s="2"/>
-      <c r="U943" s="2"/>
-      <c r="V943" s="2"/>
-      <c r="W943" s="2"/>
-      <c r="X943" s="2"/>
-      <c r="Y943" s="2"/>
-      <c r="Z943" s="2"/>
-    </row>
-    <row r="944" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A944" s="2"/>
-      <c r="B944" s="2"/>
-      <c r="C944" s="2"/>
-      <c r="D944" s="2"/>
-      <c r="E944" s="2"/>
-      <c r="F944" s="2"/>
-      <c r="G944" s="2"/>
-      <c r="H944" s="2"/>
-      <c r="I944" s="2"/>
-      <c r="J944" s="2"/>
-      <c r="K944" s="2"/>
-      <c r="L944" s="2"/>
-      <c r="M944" s="2"/>
-      <c r="N944" s="2"/>
-      <c r="O944" s="2"/>
-      <c r="P944" s="2"/>
-      <c r="Q944" s="2"/>
-      <c r="R944" s="2"/>
-      <c r="S944" s="2"/>
-      <c r="T944" s="2"/>
-      <c r="U944" s="2"/>
-      <c r="V944" s="2"/>
-      <c r="W944" s="2"/>
-      <c r="X944" s="2"/>
-      <c r="Y944" s="2"/>
-      <c r="Z944" s="2"/>
-    </row>
-    <row r="945" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A945" s="2"/>
-      <c r="B945" s="2"/>
-      <c r="C945" s="2"/>
-      <c r="D945" s="2"/>
-      <c r="E945" s="2"/>
-      <c r="F945" s="2"/>
-      <c r="G945" s="2"/>
-      <c r="H945" s="2"/>
-      <c r="I945" s="2"/>
-      <c r="J945" s="2"/>
-      <c r="K945" s="2"/>
-      <c r="L945" s="2"/>
-      <c r="M945" s="2"/>
-      <c r="N945" s="2"/>
-      <c r="O945" s="2"/>
-      <c r="P945" s="2"/>
-      <c r="Q945" s="2"/>
-      <c r="R945" s="2"/>
-      <c r="S945" s="2"/>
-      <c r="T945" s="2"/>
-      <c r="U945" s="2"/>
-      <c r="V945" s="2"/>
-      <c r="W945" s="2"/>
-      <c r="X945" s="2"/>
-      <c r="Y945" s="2"/>
-      <c r="Z945" s="2"/>
-    </row>
-    <row r="946" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A946" s="2"/>
-      <c r="B946" s="2"/>
-      <c r="C946" s="2"/>
-      <c r="D946" s="2"/>
-      <c r="E946" s="2"/>
-      <c r="F946" s="2"/>
-      <c r="G946" s="2"/>
-      <c r="H946" s="2"/>
-      <c r="I946" s="2"/>
-      <c r="J946" s="2"/>
-      <c r="K946" s="2"/>
-      <c r="L946" s="2"/>
-      <c r="M946" s="2"/>
-      <c r="N946" s="2"/>
-      <c r="O946" s="2"/>
-      <c r="P946" s="2"/>
-      <c r="Q946" s="2"/>
-      <c r="R946" s="2"/>
-      <c r="S946" s="2"/>
-      <c r="T946" s="2"/>
-      <c r="U946" s="2"/>
-      <c r="V946" s="2"/>
-      <c r="W946" s="2"/>
-      <c r="X946" s="2"/>
-      <c r="Y946" s="2"/>
-      <c r="Z946" s="2"/>
-    </row>
-    <row r="947" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A947" s="2"/>
-      <c r="B947" s="2"/>
-      <c r="C947" s="2"/>
-      <c r="D947" s="2"/>
-      <c r="E947" s="2"/>
-      <c r="F947" s="2"/>
-      <c r="G947" s="2"/>
-      <c r="H947" s="2"/>
-      <c r="I947" s="2"/>
-      <c r="J947" s="2"/>
-      <c r="K947" s="2"/>
-      <c r="L947" s="2"/>
-      <c r="M947" s="2"/>
-      <c r="N947" s="2"/>
-      <c r="O947" s="2"/>
-      <c r="P947" s="2"/>
-      <c r="Q947" s="2"/>
-      <c r="R947" s="2"/>
-      <c r="S947" s="2"/>
-      <c r="T947" s="2"/>
-      <c r="U947" s="2"/>
-      <c r="V947" s="2"/>
-      <c r="W947" s="2"/>
-      <c r="X947" s="2"/>
-      <c r="Y947" s="2"/>
-      <c r="Z947" s="2"/>
-    </row>
-    <row r="948" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A948" s="2"/>
-      <c r="B948" s="2"/>
-      <c r="C948" s="2"/>
-      <c r="D948" s="2"/>
-      <c r="E948" s="2"/>
-      <c r="F948" s="2"/>
-      <c r="G948" s="2"/>
-      <c r="H948" s="2"/>
-      <c r="I948" s="2"/>
-      <c r="J948" s="2"/>
-      <c r="K948" s="2"/>
-      <c r="L948" s="2"/>
-      <c r="M948" s="2"/>
-      <c r="N948" s="2"/>
-      <c r="O948" s="2"/>
-      <c r="P948" s="2"/>
-      <c r="Q948" s="2"/>
-      <c r="R948" s="2"/>
-      <c r="S948" s="2"/>
-      <c r="T948" s="2"/>
-      <c r="U948" s="2"/>
-      <c r="V948" s="2"/>
-      <c r="W948" s="2"/>
-      <c r="X948" s="2"/>
-      <c r="Y948" s="2"/>
-      <c r="Z948" s="2"/>
-    </row>
-    <row r="949" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A949" s="2"/>
-      <c r="B949" s="2"/>
-      <c r="C949" s="2"/>
-      <c r="D949" s="2"/>
-      <c r="E949" s="2"/>
-      <c r="F949" s="2"/>
-      <c r="G949" s="2"/>
-      <c r="H949" s="2"/>
-      <c r="I949" s="2"/>
-      <c r="J949" s="2"/>
-      <c r="K949" s="2"/>
-      <c r="L949" s="2"/>
-      <c r="M949" s="2"/>
-      <c r="N949" s="2"/>
-      <c r="O949" s="2"/>
-      <c r="P949" s="2"/>
-      <c r="Q949" s="2"/>
-      <c r="R949" s="2"/>
-      <c r="S949" s="2"/>
-      <c r="T949" s="2"/>
-      <c r="U949" s="2"/>
-      <c r="V949" s="2"/>
-      <c r="W949" s="2"/>
-      <c r="X949" s="2"/>
-      <c r="Y949" s="2"/>
-      <c r="Z949" s="2"/>
-    </row>
-    <row r="950" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A950" s="2"/>
-      <c r="B950" s="2"/>
-      <c r="C950" s="2"/>
-      <c r="D950" s="2"/>
-      <c r="E950" s="2"/>
-      <c r="F950" s="2"/>
-      <c r="G950" s="2"/>
-      <c r="H950" s="2"/>
-      <c r="I950" s="2"/>
-      <c r="J950" s="2"/>
-      <c r="K950" s="2"/>
-      <c r="L950" s="2"/>
-      <c r="M950" s="2"/>
-      <c r="N950" s="2"/>
-      <c r="O950" s="2"/>
-      <c r="P950" s="2"/>
-      <c r="Q950" s="2"/>
-      <c r="R950" s="2"/>
-      <c r="S950" s="2"/>
-      <c r="T950" s="2"/>
-      <c r="U950" s="2"/>
-      <c r="V950" s="2"/>
-      <c r="W950" s="2"/>
-      <c r="X950" s="2"/>
-      <c r="Y950" s="2"/>
-      <c r="Z950" s="2"/>
-    </row>
-    <row r="951" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A951" s="2"/>
-      <c r="B951" s="2"/>
-      <c r="C951" s="2"/>
-      <c r="D951" s="2"/>
-      <c r="E951" s="2"/>
-      <c r="F951" s="2"/>
-      <c r="G951" s="2"/>
-      <c r="H951" s="2"/>
-      <c r="I951" s="2"/>
-      <c r="J951" s="2"/>
-      <c r="K951" s="2"/>
-      <c r="L951" s="2"/>
-      <c r="M951" s="2"/>
-      <c r="N951" s="2"/>
-      <c r="O951" s="2"/>
-      <c r="P951" s="2"/>
-      <c r="Q951" s="2"/>
-      <c r="R951" s="2"/>
-      <c r="S951" s="2"/>
-      <c r="T951" s="2"/>
-      <c r="U951" s="2"/>
-      <c r="V951" s="2"/>
-      <c r="W951" s="2"/>
-      <c r="X951" s="2"/>
-      <c r="Y951" s="2"/>
-      <c r="Z951" s="2"/>
-    </row>
-    <row r="952" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A952" s="2"/>
-      <c r="B952" s="2"/>
-      <c r="C952" s="2"/>
-      <c r="D952" s="2"/>
-      <c r="E952" s="2"/>
-      <c r="F952" s="2"/>
-      <c r="G952" s="2"/>
-      <c r="H952" s="2"/>
-      <c r="I952" s="2"/>
-      <c r="J952" s="2"/>
-      <c r="K952" s="2"/>
-      <c r="L952" s="2"/>
-      <c r="M952" s="2"/>
-      <c r="N952" s="2"/>
-      <c r="O952" s="2"/>
-      <c r="P952" s="2"/>
-      <c r="Q952" s="2"/>
-      <c r="R952" s="2"/>
-      <c r="S952" s="2"/>
-      <c r="T952" s="2"/>
-      <c r="U952" s="2"/>
-      <c r="V952" s="2"/>
-      <c r="W952" s="2"/>
-      <c r="X952" s="2"/>
-      <c r="Y952" s="2"/>
-      <c r="Z952" s="2"/>
-    </row>
-    <row r="953" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A953" s="2"/>
-      <c r="B953" s="2"/>
-      <c r="C953" s="2"/>
-      <c r="D953" s="2"/>
-      <c r="E953" s="2"/>
-      <c r="F953" s="2"/>
-      <c r="G953" s="2"/>
-      <c r="H953" s="2"/>
-      <c r="I953" s="2"/>
-      <c r="J953" s="2"/>
-      <c r="K953" s="2"/>
-      <c r="L953" s="2"/>
-      <c r="M953" s="2"/>
-      <c r="N953" s="2"/>
-      <c r="O953" s="2"/>
-      <c r="P953" s="2"/>
-      <c r="Q953" s="2"/>
-      <c r="R953" s="2"/>
-      <c r="S953" s="2"/>
-      <c r="T953" s="2"/>
-      <c r="U953" s="2"/>
-      <c r="V953" s="2"/>
-      <c r="W953" s="2"/>
-      <c r="X953" s="2"/>
-      <c r="Y953" s="2"/>
-      <c r="Z953" s="2"/>
-    </row>
-    <row r="954" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A954" s="2"/>
-      <c r="B954" s="2"/>
-      <c r="C954" s="2"/>
-      <c r="D954" s="2"/>
-      <c r="E954" s="2"/>
-      <c r="F954" s="2"/>
-      <c r="G954" s="2"/>
-      <c r="H954" s="2"/>
-      <c r="I954" s="2"/>
-      <c r="J954" s="2"/>
-      <c r="K954" s="2"/>
-      <c r="L954" s="2"/>
-      <c r="M954" s="2"/>
-      <c r="N954" s="2"/>
-      <c r="O954" s="2"/>
-      <c r="P954" s="2"/>
-      <c r="Q954" s="2"/>
-      <c r="R954" s="2"/>
-      <c r="S954" s="2"/>
-      <c r="T954" s="2"/>
-      <c r="U954" s="2"/>
-      <c r="V954" s="2"/>
-      <c r="W954" s="2"/>
-      <c r="X954" s="2"/>
-      <c r="Y954" s="2"/>
-      <c r="Z954" s="2"/>
-    </row>
-    <row r="955" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A955" s="2"/>
-      <c r="B955" s="2"/>
-      <c r="C955" s="2"/>
-      <c r="D955" s="2"/>
-      <c r="E955" s="2"/>
-      <c r="F955" s="2"/>
-      <c r="G955" s="2"/>
-      <c r="H955" s="2"/>
-      <c r="I955" s="2"/>
-      <c r="J955" s="2"/>
-      <c r="K955" s="2"/>
-      <c r="L955" s="2"/>
-      <c r="M955" s="2"/>
-      <c r="N955" s="2"/>
-      <c r="O955" s="2"/>
-      <c r="P955" s="2"/>
-      <c r="Q955" s="2"/>
-      <c r="R955" s="2"/>
-      <c r="S955" s="2"/>
-      <c r="T955" s="2"/>
-      <c r="U955" s="2"/>
-      <c r="V955" s="2"/>
-      <c r="W955" s="2"/>
-      <c r="X955" s="2"/>
-      <c r="Y955" s="2"/>
-      <c r="Z955" s="2"/>
-    </row>
-    <row r="956" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A956" s="2"/>
-      <c r="B956" s="2"/>
-      <c r="C956" s="2"/>
-      <c r="D956" s="2"/>
-      <c r="E956" s="2"/>
-      <c r="F956" s="2"/>
-      <c r="G956" s="2"/>
-      <c r="H956" s="2"/>
-      <c r="I956" s="2"/>
-      <c r="J956" s="2"/>
-      <c r="K956" s="2"/>
-      <c r="L956" s="2"/>
-      <c r="M956" s="2"/>
-      <c r="N956" s="2"/>
-      <c r="O956" s="2"/>
-      <c r="P956" s="2"/>
-      <c r="Q956" s="2"/>
-      <c r="R956" s="2"/>
-      <c r="S956" s="2"/>
-      <c r="T956" s="2"/>
-      <c r="U956" s="2"/>
-      <c r="V956" s="2"/>
-      <c r="W956" s="2"/>
-      <c r="X956" s="2"/>
-      <c r="Y956" s="2"/>
-      <c r="Z956" s="2"/>
-    </row>
-    <row r="957" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A957" s="2"/>
-      <c r="B957" s="2"/>
-      <c r="C957" s="2"/>
-      <c r="D957" s="2"/>
-      <c r="E957" s="2"/>
-      <c r="F957" s="2"/>
-      <c r="G957" s="2"/>
-      <c r="H957" s="2"/>
-      <c r="I957" s="2"/>
-      <c r="J957" s="2"/>
-      <c r="K957" s="2"/>
-      <c r="L957" s="2"/>
-      <c r="M957" s="2"/>
-      <c r="N957" s="2"/>
-      <c r="O957" s="2"/>
-      <c r="P957" s="2"/>
-      <c r="Q957" s="2"/>
-      <c r="R957" s="2"/>
-      <c r="S957" s="2"/>
-      <c r="T957" s="2"/>
-      <c r="U957" s="2"/>
-      <c r="V957" s="2"/>
-      <c r="W957" s="2"/>
-      <c r="X957" s="2"/>
-      <c r="Y957" s="2"/>
-      <c r="Z957" s="2"/>
-    </row>
-    <row r="958" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A958" s="2"/>
-      <c r="B958" s="2"/>
-      <c r="C958" s="2"/>
-      <c r="D958" s="2"/>
-      <c r="E958" s="2"/>
-      <c r="F958" s="2"/>
-      <c r="G958" s="2"/>
-      <c r="H958" s="2"/>
-      <c r="I958" s="2"/>
-      <c r="J958" s="2"/>
-      <c r="K958" s="2"/>
-      <c r="L958" s="2"/>
-      <c r="M958" s="2"/>
-      <c r="N958" s="2"/>
-      <c r="O958" s="2"/>
-      <c r="P958" s="2"/>
-      <c r="Q958" s="2"/>
-      <c r="R958" s="2"/>
-      <c r="S958" s="2"/>
-      <c r="T958" s="2"/>
-      <c r="U958" s="2"/>
-      <c r="V958" s="2"/>
-      <c r="W958" s="2"/>
-      <c r="X958" s="2"/>
-      <c r="Y958" s="2"/>
-      <c r="Z958" s="2"/>
-    </row>
-    <row r="959" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A959" s="2"/>
-      <c r="B959" s="2"/>
-      <c r="C959" s="2"/>
-      <c r="D959" s="2"/>
-      <c r="E959" s="2"/>
-      <c r="F959" s="2"/>
-      <c r="G959" s="2"/>
-      <c r="H959" s="2"/>
-      <c r="I959" s="2"/>
-      <c r="J959" s="2"/>
-      <c r="K959" s="2"/>
-      <c r="L959" s="2"/>
-      <c r="M959" s="2"/>
-      <c r="N959" s="2"/>
-      <c r="O959" s="2"/>
-      <c r="P959" s="2"/>
-      <c r="Q959" s="2"/>
-      <c r="R959" s="2"/>
-      <c r="S959" s="2"/>
-      <c r="T959" s="2"/>
-      <c r="U959" s="2"/>
-      <c r="V959" s="2"/>
-      <c r="W959" s="2"/>
-      <c r="X959" s="2"/>
-      <c r="Y959" s="2"/>
-      <c r="Z959" s="2"/>
-    </row>
-    <row r="960" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A960" s="2"/>
-      <c r="B960" s="2"/>
-      <c r="C960" s="2"/>
-      <c r="D960" s="2"/>
-      <c r="E960" s="2"/>
-      <c r="F960" s="2"/>
-      <c r="G960" s="2"/>
-      <c r="H960" s="2"/>
-      <c r="I960" s="2"/>
-      <c r="J960" s="2"/>
-      <c r="K960" s="2"/>
-      <c r="L960" s="2"/>
-      <c r="M960" s="2"/>
-      <c r="N960" s="2"/>
-      <c r="O960" s="2"/>
-      <c r="P960" s="2"/>
-      <c r="Q960" s="2"/>
-      <c r="R960" s="2"/>
-      <c r="S960" s="2"/>
-      <c r="T960" s="2"/>
-      <c r="U960" s="2"/>
-      <c r="V960" s="2"/>
-      <c r="W960" s="2"/>
-      <c r="X960" s="2"/>
-      <c r="Y960" s="2"/>
-      <c r="Z960" s="2"/>
-    </row>
-    <row r="961" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A961" s="2"/>
-      <c r="B961" s="2"/>
-      <c r="C961" s="2"/>
-      <c r="D961" s="2"/>
-      <c r="E961" s="2"/>
-      <c r="F961" s="2"/>
-      <c r="G961" s="2"/>
-      <c r="H961" s="2"/>
-      <c r="I961" s="2"/>
-      <c r="J961" s="2"/>
-      <c r="K961" s="2"/>
-      <c r="L961" s="2"/>
-      <c r="M961" s="2"/>
-      <c r="N961" s="2"/>
-      <c r="O961" s="2"/>
-      <c r="P961" s="2"/>
-      <c r="Q961" s="2"/>
-      <c r="R961" s="2"/>
-      <c r="S961" s="2"/>
-      <c r="T961" s="2"/>
-      <c r="U961" s="2"/>
-      <c r="V961" s="2"/>
-      <c r="W961" s="2"/>
-      <c r="X961" s="2"/>
-      <c r="Y961" s="2"/>
-      <c r="Z961" s="2"/>
-    </row>
-    <row r="962" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A962" s="2"/>
-      <c r="B962" s="2"/>
-      <c r="C962" s="2"/>
-      <c r="D962" s="2"/>
-      <c r="E962" s="2"/>
-      <c r="F962" s="2"/>
-      <c r="G962" s="2"/>
-      <c r="H962" s="2"/>
-      <c r="I962" s="2"/>
-      <c r="J962" s="2"/>
-      <c r="K962" s="2"/>
-      <c r="L962" s="2"/>
-      <c r="M962" s="2"/>
-      <c r="N962" s="2"/>
-      <c r="O962" s="2"/>
-      <c r="P962" s="2"/>
-      <c r="Q962" s="2"/>
-      <c r="R962" s="2"/>
-      <c r="S962" s="2"/>
-      <c r="T962" s="2"/>
-      <c r="U962" s="2"/>
-      <c r="V962" s="2"/>
-      <c r="W962" s="2"/>
-      <c r="X962" s="2"/>
-      <c r="Y962" s="2"/>
-      <c r="Z962" s="2"/>
-    </row>
-    <row r="963" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A963" s="2"/>
-      <c r="B963" s="2"/>
-      <c r="C963" s="2"/>
-      <c r="D963" s="2"/>
-      <c r="E963" s="2"/>
-      <c r="F963" s="2"/>
-      <c r="G963" s="2"/>
-      <c r="H963" s="2"/>
-      <c r="I963" s="2"/>
-      <c r="J963" s="2"/>
-      <c r="K963" s="2"/>
-      <c r="L963" s="2"/>
-      <c r="M963" s="2"/>
-      <c r="N963" s="2"/>
-      <c r="O963" s="2"/>
-      <c r="P963" s="2"/>
-      <c r="Q963" s="2"/>
-      <c r="R963" s="2"/>
-      <c r="S963" s="2"/>
-      <c r="T963" s="2"/>
-      <c r="U963" s="2"/>
-      <c r="V963" s="2"/>
-      <c r="W963" s="2"/>
-      <c r="X963" s="2"/>
-      <c r="Y963" s="2"/>
-      <c r="Z963" s="2"/>
-    </row>
-    <row r="964" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A964" s="2"/>
-      <c r="B964" s="2"/>
-      <c r="C964" s="2"/>
-      <c r="D964" s="2"/>
-      <c r="E964" s="2"/>
-      <c r="F964" s="2"/>
-      <c r="G964" s="2"/>
-      <c r="H964" s="2"/>
-      <c r="I964" s="2"/>
-      <c r="J964" s="2"/>
-      <c r="K964" s="2"/>
-      <c r="L964" s="2"/>
-      <c r="M964" s="2"/>
-      <c r="N964" s="2"/>
-      <c r="O964" s="2"/>
-      <c r="P964" s="2"/>
-      <c r="Q964" s="2"/>
-      <c r="R964" s="2"/>
-      <c r="S964" s="2"/>
-      <c r="T964" s="2"/>
-      <c r="U964" s="2"/>
-      <c r="V964" s="2"/>
-      <c r="W964" s="2"/>
-      <c r="X964" s="2"/>
-      <c r="Y964" s="2"/>
-      <c r="Z964" s="2"/>
-    </row>
-    <row r="965" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A965" s="2"/>
-      <c r="B965" s="2"/>
-      <c r="C965" s="2"/>
-      <c r="D965" s="2"/>
-      <c r="E965" s="2"/>
-      <c r="F965" s="2"/>
-      <c r="G965" s="2"/>
-      <c r="H965" s="2"/>
-      <c r="I965" s="2"/>
-      <c r="J965" s="2"/>
-      <c r="K965" s="2"/>
-      <c r="L965" s="2"/>
-      <c r="M965" s="2"/>
-      <c r="N965" s="2"/>
-      <c r="O965" s="2"/>
-      <c r="P965" s="2"/>
-      <c r="Q965" s="2"/>
-      <c r="R965" s="2"/>
-      <c r="S965" s="2"/>
-      <c r="T965" s="2"/>
-      <c r="U965" s="2"/>
-      <c r="V965" s="2"/>
-      <c r="W965" s="2"/>
-      <c r="X965" s="2"/>
-      <c r="Y965" s="2"/>
-      <c r="Z965" s="2"/>
-    </row>
-    <row r="966" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A966" s="2"/>
-      <c r="B966" s="2"/>
-      <c r="C966" s="2"/>
-      <c r="D966" s="2"/>
-      <c r="E966" s="2"/>
-      <c r="F966" s="2"/>
-      <c r="G966" s="2"/>
-      <c r="H966" s="2"/>
-      <c r="I966" s="2"/>
-      <c r="J966" s="2"/>
-      <c r="K966" s="2"/>
-      <c r="L966" s="2"/>
-      <c r="M966" s="2"/>
-      <c r="N966" s="2"/>
-      <c r="O966" s="2"/>
-      <c r="P966" s="2"/>
-      <c r="Q966" s="2"/>
-      <c r="R966" s="2"/>
-      <c r="S966" s="2"/>
-      <c r="T966" s="2"/>
-      <c r="U966" s="2"/>
-      <c r="V966" s="2"/>
-      <c r="W966" s="2"/>
-      <c r="X966" s="2"/>
-      <c r="Y966" s="2"/>
-      <c r="Z966" s="2"/>
-    </row>
-    <row r="967" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A967" s="2"/>
-      <c r="B967" s="2"/>
-      <c r="C967" s="2"/>
-      <c r="D967" s="2"/>
-      <c r="E967" s="2"/>
-      <c r="F967" s="2"/>
-      <c r="G967" s="2"/>
-      <c r="H967" s="2"/>
-      <c r="I967" s="2"/>
-      <c r="J967" s="2"/>
-      <c r="K967" s="2"/>
-      <c r="L967" s="2"/>
-      <c r="M967" s="2"/>
-      <c r="N967" s="2"/>
-      <c r="O967" s="2"/>
-      <c r="P967" s="2"/>
-      <c r="Q967" s="2"/>
-      <c r="R967" s="2"/>
-      <c r="S967" s="2"/>
-      <c r="T967" s="2"/>
-      <c r="U967" s="2"/>
-      <c r="V967" s="2"/>
-      <c r="W967" s="2"/>
-      <c r="X967" s="2"/>
-      <c r="Y967" s="2"/>
-      <c r="Z967" s="2"/>
-    </row>
-    <row r="968" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A968" s="2"/>
-      <c r="B968" s="2"/>
-      <c r="C968" s="2"/>
-      <c r="D968" s="2"/>
-      <c r="E968" s="2"/>
-      <c r="F968" s="2"/>
-      <c r="G968" s="2"/>
-      <c r="H968" s="2"/>
-      <c r="I968" s="2"/>
-      <c r="J968" s="2"/>
-      <c r="K968" s="2"/>
-      <c r="L968" s="2"/>
-      <c r="M968" s="2"/>
-      <c r="N968" s="2"/>
-      <c r="O968" s="2"/>
-      <c r="P968" s="2"/>
-      <c r="Q968" s="2"/>
-      <c r="R968" s="2"/>
-      <c r="S968" s="2"/>
-      <c r="T968" s="2"/>
-      <c r="U968" s="2"/>
-      <c r="V968" s="2"/>
-      <c r="W968" s="2"/>
-      <c r="X968" s="2"/>
-      <c r="Y968" s="2"/>
-      <c r="Z968" s="2"/>
-    </row>
-    <row r="969" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A969" s="2"/>
-      <c r="B969" s="2"/>
-      <c r="C969" s="2"/>
-      <c r="D969" s="2"/>
-      <c r="E969" s="2"/>
-      <c r="F969" s="2"/>
-      <c r="G969" s="2"/>
-      <c r="H969" s="2"/>
-      <c r="I969" s="2"/>
-      <c r="J969" s="2"/>
-      <c r="K969" s="2"/>
-      <c r="L969" s="2"/>
-      <c r="M969" s="2"/>
-      <c r="N969" s="2"/>
-      <c r="O969" s="2"/>
-      <c r="P969" s="2"/>
-      <c r="Q969" s="2"/>
-      <c r="R969" s="2"/>
-      <c r="S969" s="2"/>
-      <c r="T969" s="2"/>
-      <c r="U969" s="2"/>
-      <c r="V969" s="2"/>
-      <c r="W969" s="2"/>
-      <c r="X969" s="2"/>
-      <c r="Y969" s="2"/>
-      <c r="Z969" s="2"/>
-    </row>
-    <row r="970" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A970" s="2"/>
-      <c r="B970" s="2"/>
-      <c r="C970" s="2"/>
-      <c r="D970" s="2"/>
-      <c r="E970" s="2"/>
-      <c r="F970" s="2"/>
-      <c r="G970" s="2"/>
-      <c r="H970" s="2"/>
-      <c r="I970" s="2"/>
-      <c r="J970" s="2"/>
-      <c r="K970" s="2"/>
-      <c r="L970" s="2"/>
-      <c r="M970" s="2"/>
-      <c r="N970" s="2"/>
-      <c r="O970" s="2"/>
-      <c r="P970" s="2"/>
-      <c r="Q970" s="2"/>
-      <c r="R970" s="2"/>
-      <c r="S970" s="2"/>
-      <c r="T970" s="2"/>
-      <c r="U970" s="2"/>
-      <c r="V970" s="2"/>
-      <c r="W970" s="2"/>
-      <c r="X970" s="2"/>
-      <c r="Y970" s="2"/>
-      <c r="Z970" s="2"/>
-    </row>
-    <row r="971" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A971" s="2"/>
-      <c r="B971" s="2"/>
-      <c r="C971" s="2"/>
-      <c r="D971" s="2"/>
-      <c r="E971" s="2"/>
-      <c r="F971" s="2"/>
-      <c r="G971" s="2"/>
-      <c r="H971" s="2"/>
-      <c r="I971" s="2"/>
-      <c r="J971" s="2"/>
-      <c r="K971" s="2"/>
-      <c r="L971" s="2"/>
-      <c r="M971" s="2"/>
-      <c r="N971" s="2"/>
-      <c r="O971" s="2"/>
-      <c r="P971" s="2"/>
-      <c r="Q971" s="2"/>
-      <c r="R971" s="2"/>
-      <c r="S971" s="2"/>
-      <c r="T971" s="2"/>
-      <c r="U971" s="2"/>
-      <c r="V971" s="2"/>
-      <c r="W971" s="2"/>
-      <c r="X971" s="2"/>
-      <c r="Y971" s="2"/>
-      <c r="Z971" s="2"/>
-    </row>
-    <row r="972" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A972" s="2"/>
-      <c r="B972" s="2"/>
-      <c r="C972" s="2"/>
-      <c r="D972" s="2"/>
-      <c r="E972" s="2"/>
-      <c r="F972" s="2"/>
-      <c r="G972" s="2"/>
-      <c r="H972" s="2"/>
-      <c r="I972" s="2"/>
-      <c r="J972" s="2"/>
-      <c r="K972" s="2"/>
-      <c r="L972" s="2"/>
-      <c r="M972" s="2"/>
-      <c r="N972" s="2"/>
-      <c r="O972" s="2"/>
-      <c r="P972" s="2"/>
-      <c r="Q972" s="2"/>
-      <c r="R972" s="2"/>
-      <c r="S972" s="2"/>
-      <c r="T972" s="2"/>
-      <c r="U972" s="2"/>
-      <c r="V972" s="2"/>
-      <c r="W972" s="2"/>
-      <c r="X972" s="2"/>
-      <c r="Y972" s="2"/>
-      <c r="Z972" s="2"/>
-    </row>
-    <row r="973" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A973" s="2"/>
-      <c r="B973" s="2"/>
-      <c r="C973" s="2"/>
-      <c r="D973" s="2"/>
-      <c r="E973" s="2"/>
-      <c r="F973" s="2"/>
-      <c r="G973" s="2"/>
-      <c r="H973" s="2"/>
-      <c r="I973" s="2"/>
-      <c r="J973" s="2"/>
-      <c r="K973" s="2"/>
-      <c r="L973" s="2"/>
-      <c r="M973" s="2"/>
-      <c r="N973" s="2"/>
-      <c r="O973" s="2"/>
-      <c r="P973" s="2"/>
-      <c r="Q973" s="2"/>
-      <c r="R973" s="2"/>
-      <c r="S973" s="2"/>
-      <c r="T973" s="2"/>
-      <c r="U973" s="2"/>
-      <c r="V973" s="2"/>
-      <c r="W973" s="2"/>
-      <c r="X973" s="2"/>
-      <c r="Y973" s="2"/>
-      <c r="Z973" s="2"/>
-    </row>
-    <row r="974" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A974" s="2"/>
-      <c r="B974" s="2"/>
-      <c r="C974" s="2"/>
-      <c r="D974" s="2"/>
-      <c r="E974" s="2"/>
-      <c r="F974" s="2"/>
-      <c r="G974" s="2"/>
-      <c r="H974" s="2"/>
-      <c r="I974" s="2"/>
-      <c r="J974" s="2"/>
-      <c r="K974" s="2"/>
-      <c r="L974" s="2"/>
-      <c r="M974" s="2"/>
-      <c r="N974" s="2"/>
-      <c r="O974" s="2"/>
-      <c r="P974" s="2"/>
-      <c r="Q974" s="2"/>
-      <c r="R974" s="2"/>
-      <c r="S974" s="2"/>
-      <c r="T974" s="2"/>
-      <c r="U974" s="2"/>
-      <c r="V974" s="2"/>
-      <c r="W974" s="2"/>
-      <c r="X974" s="2"/>
-      <c r="Y974" s="2"/>
-      <c r="Z974" s="2"/>
-    </row>
-    <row r="975" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A975" s="2"/>
-      <c r="B975" s="2"/>
-      <c r="C975" s="2"/>
-      <c r="D975" s="2"/>
-      <c r="E975" s="2"/>
-      <c r="F975" s="2"/>
-      <c r="G975" s="2"/>
-      <c r="H975" s="2"/>
-      <c r="I975" s="2"/>
-      <c r="J975" s="2"/>
-      <c r="K975" s="2"/>
-      <c r="L975" s="2"/>
-      <c r="M975" s="2"/>
-      <c r="N975" s="2"/>
-      <c r="O975" s="2"/>
-      <c r="P975" s="2"/>
-      <c r="Q975" s="2"/>
-      <c r="R975" s="2"/>
-      <c r="S975" s="2"/>
-      <c r="T975" s="2"/>
-      <c r="U975" s="2"/>
-      <c r="V975" s="2"/>
-      <c r="W975" s="2"/>
-      <c r="X975" s="2"/>
-      <c r="Y975" s="2"/>
-      <c r="Z975" s="2"/>
-    </row>
-    <row r="976" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A976" s="2"/>
-      <c r="B976" s="2"/>
-      <c r="C976" s="2"/>
-      <c r="D976" s="2"/>
-      <c r="E976" s="2"/>
-      <c r="F976" s="2"/>
-      <c r="G976" s="2"/>
-      <c r="H976" s="2"/>
-      <c r="I976" s="2"/>
-      <c r="J976" s="2"/>
-      <c r="K976" s="2"/>
-      <c r="L976" s="2"/>
-      <c r="M976" s="2"/>
-      <c r="N976" s="2"/>
-      <c r="O976" s="2"/>
-      <c r="P976" s="2"/>
-      <c r="Q976" s="2"/>
-      <c r="R976" s="2"/>
-      <c r="S976" s="2"/>
-      <c r="T976" s="2"/>
-      <c r="U976" s="2"/>
-      <c r="V976" s="2"/>
-      <c r="W976" s="2"/>
-      <c r="X976" s="2"/>
-      <c r="Y976" s="2"/>
-      <c r="Z976" s="2"/>
-    </row>
-    <row r="977" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A977" s="2"/>
-      <c r="B977" s="2"/>
-      <c r="C977" s="2"/>
-      <c r="D977" s="2"/>
-      <c r="E977" s="2"/>
-      <c r="F977" s="2"/>
-      <c r="G977" s="2"/>
-      <c r="H977" s="2"/>
-      <c r="I977" s="2"/>
-      <c r="J977" s="2"/>
-      <c r="K977" s="2"/>
-      <c r="L977" s="2"/>
-      <c r="M977" s="2"/>
-      <c r="N977" s="2"/>
-      <c r="O977" s="2"/>
-      <c r="P977" s="2"/>
-      <c r="Q977" s="2"/>
-      <c r="R977" s="2"/>
-      <c r="S977" s="2"/>
-      <c r="T977" s="2"/>
-      <c r="U977" s="2"/>
-      <c r="V977" s="2"/>
-      <c r="W977" s="2"/>
-      <c r="X977" s="2"/>
-      <c r="Y977" s="2"/>
-      <c r="Z977" s="2"/>
-    </row>
-    <row r="978" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A978" s="2"/>
-      <c r="B978" s="2"/>
-      <c r="C978" s="2"/>
-      <c r="D978" s="2"/>
-      <c r="E978" s="2"/>
-      <c r="F978" s="2"/>
-      <c r="G978" s="2"/>
-      <c r="H978" s="2"/>
-      <c r="I978" s="2"/>
-      <c r="J978" s="2"/>
-      <c r="K978" s="2"/>
-      <c r="L978" s="2"/>
-      <c r="M978" s="2"/>
-      <c r="N978" s="2"/>
-      <c r="O978" s="2"/>
-      <c r="P978" s="2"/>
-      <c r="Q978" s="2"/>
-      <c r="R978" s="2"/>
-      <c r="S978" s="2"/>
-      <c r="T978" s="2"/>
-      <c r="U978" s="2"/>
-      <c r="V978" s="2"/>
-      <c r="W978" s="2"/>
-      <c r="X978" s="2"/>
-      <c r="Y978" s="2"/>
-      <c r="Z978" s="2"/>
-    </row>
-    <row r="979" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A979" s="2"/>
-      <c r="B979" s="2"/>
-      <c r="C979" s="2"/>
-      <c r="D979" s="2"/>
-      <c r="E979" s="2"/>
-      <c r="F979" s="2"/>
-      <c r="G979" s="2"/>
-      <c r="H979" s="2"/>
-      <c r="I979" s="2"/>
-      <c r="J979" s="2"/>
-      <c r="K979" s="2"/>
-      <c r="L979" s="2"/>
-      <c r="M979" s="2"/>
-      <c r="N979" s="2"/>
-      <c r="O979" s="2"/>
-      <c r="P979" s="2"/>
-      <c r="Q979" s="2"/>
-      <c r="R979" s="2"/>
-      <c r="S979" s="2"/>
-      <c r="T979" s="2"/>
-      <c r="U979" s="2"/>
-      <c r="V979" s="2"/>
-      <c r="W979" s="2"/>
-      <c r="X979" s="2"/>
-      <c r="Y979" s="2"/>
-      <c r="Z979" s="2"/>
-    </row>
-    <row r="980" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A980" s="2"/>
-      <c r="B980" s="2"/>
-      <c r="C980" s="2"/>
-      <c r="D980" s="2"/>
-      <c r="E980" s="2"/>
-      <c r="F980" s="2"/>
-      <c r="G980" s="2"/>
-      <c r="H980" s="2"/>
-      <c r="I980" s="2"/>
-      <c r="J980" s="2"/>
-      <c r="K980" s="2"/>
-      <c r="L980" s="2"/>
-      <c r="M980" s="2"/>
-      <c r="N980" s="2"/>
-      <c r="O980" s="2"/>
-      <c r="P980" s="2"/>
-      <c r="Q980" s="2"/>
-      <c r="R980" s="2"/>
-      <c r="S980" s="2"/>
-      <c r="T980" s="2"/>
-      <c r="U980" s="2"/>
-      <c r="V980" s="2"/>
-      <c r="W980" s="2"/>
-      <c r="X980" s="2"/>
-      <c r="Y980" s="2"/>
-      <c r="Z980" s="2"/>
-    </row>
-    <row r="981" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A981" s="2"/>
-      <c r="B981" s="2"/>
-      <c r="C981" s="2"/>
-      <c r="D981" s="2"/>
-      <c r="E981" s="2"/>
-      <c r="F981" s="2"/>
-      <c r="G981" s="2"/>
-      <c r="H981" s="2"/>
-      <c r="I981" s="2"/>
-      <c r="J981" s="2"/>
-      <c r="K981" s="2"/>
-      <c r="L981" s="2"/>
-      <c r="M981" s="2"/>
-      <c r="N981" s="2"/>
-      <c r="O981" s="2"/>
-      <c r="P981" s="2"/>
-      <c r="Q981" s="2"/>
-      <c r="R981" s="2"/>
-      <c r="S981" s="2"/>
-      <c r="T981" s="2"/>
-      <c r="U981" s="2"/>
-      <c r="V981" s="2"/>
-      <c r="W981" s="2"/>
-      <c r="X981" s="2"/>
-      <c r="Y981" s="2"/>
-      <c r="Z981" s="2"/>
-    </row>
-    <row r="982" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A982" s="2"/>
-      <c r="B982" s="2"/>
-      <c r="C982" s="2"/>
-      <c r="D982" s="2"/>
-      <c r="E982" s="2"/>
-      <c r="F982" s="2"/>
-      <c r="G982" s="2"/>
-      <c r="H982" s="2"/>
-      <c r="I982" s="2"/>
-      <c r="J982" s="2"/>
-      <c r="K982" s="2"/>
-      <c r="L982" s="2"/>
-      <c r="M982" s="2"/>
-      <c r="N982" s="2"/>
-      <c r="O982" s="2"/>
-      <c r="P982" s="2"/>
-      <c r="Q982" s="2"/>
-      <c r="R982" s="2"/>
-      <c r="S982" s="2"/>
-      <c r="T982" s="2"/>
-      <c r="U982" s="2"/>
-      <c r="V982" s="2"/>
-      <c r="W982" s="2"/>
-      <c r="X982" s="2"/>
-      <c r="Y982" s="2"/>
-      <c r="Z982" s="2"/>
-    </row>
-    <row r="983" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A983" s="2"/>
-      <c r="B983" s="2"/>
-      <c r="C983" s="2"/>
-      <c r="D983" s="2"/>
-      <c r="E983" s="2"/>
-      <c r="F983" s="2"/>
-      <c r="G983" s="2"/>
-      <c r="H983" s="2"/>
-      <c r="I983" s="2"/>
-      <c r="J983" s="2"/>
-      <c r="K983" s="2"/>
-      <c r="L983" s="2"/>
-      <c r="M983" s="2"/>
-      <c r="N983" s="2"/>
-      <c r="O983" s="2"/>
-      <c r="P983" s="2"/>
-      <c r="Q983" s="2"/>
-      <c r="R983" s="2"/>
-      <c r="S983" s="2"/>
-      <c r="T983" s="2"/>
-      <c r="U983" s="2"/>
-      <c r="V983" s="2"/>
-      <c r="W983" s="2"/>
-      <c r="X983" s="2"/>
-      <c r="Y983" s="2"/>
-      <c r="Z983" s="2"/>
-    </row>
-    <row r="984" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A984" s="2"/>
-      <c r="B984" s="2"/>
-      <c r="C984" s="2"/>
-      <c r="D984" s="2"/>
-      <c r="E984" s="2"/>
-      <c r="F984" s="2"/>
-      <c r="G984" s="2"/>
-      <c r="H984" s="2"/>
-      <c r="I984" s="2"/>
-      <c r="J984" s="2"/>
-      <c r="K984" s="2"/>
-      <c r="L984" s="2"/>
-      <c r="M984" s="2"/>
-      <c r="N984" s="2"/>
-      <c r="O984" s="2"/>
-      <c r="P984" s="2"/>
-      <c r="Q984" s="2"/>
-      <c r="R984" s="2"/>
-      <c r="S984" s="2"/>
-      <c r="T984" s="2"/>
-      <c r="U984" s="2"/>
-      <c r="V984" s="2"/>
-      <c r="W984" s="2"/>
-      <c r="X984" s="2"/>
-      <c r="Y984" s="2"/>
-      <c r="Z984" s="2"/>
-    </row>
-    <row r="985" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A985" s="2"/>
-      <c r="B985" s="2"/>
-      <c r="C985" s="2"/>
-      <c r="D985" s="2"/>
-      <c r="E985" s="2"/>
-      <c r="F985" s="2"/>
-      <c r="G985" s="2"/>
-      <c r="H985" s="2"/>
-      <c r="I985" s="2"/>
-      <c r="J985" s="2"/>
-      <c r="K985" s="2"/>
-      <c r="L985" s="2"/>
-      <c r="M985" s="2"/>
-      <c r="N985" s="2"/>
-      <c r="O985" s="2"/>
-      <c r="P985" s="2"/>
-      <c r="Q985" s="2"/>
-      <c r="R985" s="2"/>
-      <c r="S985" s="2"/>
-      <c r="T985" s="2"/>
-      <c r="U985" s="2"/>
-      <c r="V985" s="2"/>
-      <c r="W985" s="2"/>
-      <c r="X985" s="2"/>
-      <c r="Y985" s="2"/>
-      <c r="Z985" s="2"/>
-    </row>
-    <row r="986" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A986" s="2"/>
-      <c r="B986" s="2"/>
-      <c r="C986" s="2"/>
-      <c r="D986" s="2"/>
-      <c r="E986" s="2"/>
-      <c r="F986" s="2"/>
-      <c r="G986" s="2"/>
-      <c r="H986" s="2"/>
-      <c r="I986" s="2"/>
-      <c r="J986" s="2"/>
-      <c r="K986" s="2"/>
-      <c r="L986" s="2"/>
-      <c r="M986" s="2"/>
-      <c r="N986" s="2"/>
-      <c r="O986" s="2"/>
-      <c r="P986" s="2"/>
-      <c r="Q986" s="2"/>
-      <c r="R986" s="2"/>
-      <c r="S986" s="2"/>
-      <c r="T986" s="2"/>
-      <c r="U986" s="2"/>
-      <c r="V986" s="2"/>
-      <c r="W986" s="2"/>
-      <c r="X986" s="2"/>
-      <c r="Y986" s="2"/>
-      <c r="Z986" s="2"/>
-    </row>
-    <row r="987" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A987" s="2"/>
-      <c r="B987" s="2"/>
-      <c r="C987" s="2"/>
-      <c r="D987" s="2"/>
-      <c r="E987" s="2"/>
-      <c r="F987" s="2"/>
-      <c r="G987" s="2"/>
-      <c r="H987" s="2"/>
-      <c r="I987" s="2"/>
-      <c r="J987" s="2"/>
-      <c r="K987" s="2"/>
-      <c r="L987" s="2"/>
-      <c r="M987" s="2"/>
-      <c r="N987" s="2"/>
-      <c r="O987" s="2"/>
-      <c r="P987" s="2"/>
-      <c r="Q987" s="2"/>
-      <c r="R987" s="2"/>
-      <c r="S987" s="2"/>
-      <c r="T987" s="2"/>
-      <c r="U987" s="2"/>
-      <c r="V987" s="2"/>
-      <c r="W987" s="2"/>
-      <c r="X987" s="2"/>
-      <c r="Y987" s="2"/>
-      <c r="Z987" s="2"/>
-    </row>
-    <row r="988" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A988" s="2"/>
-      <c r="B988" s="2"/>
-      <c r="C988" s="2"/>
-      <c r="D988" s="2"/>
-      <c r="E988" s="2"/>
-      <c r="F988" s="2"/>
-      <c r="G988" s="2"/>
-      <c r="H988" s="2"/>
-      <c r="I988" s="2"/>
-      <c r="J988" s="2"/>
-      <c r="K988" s="2"/>
-      <c r="L988" s="2"/>
-      <c r="M988" s="2"/>
-      <c r="N988" s="2"/>
-      <c r="O988" s="2"/>
-      <c r="P988" s="2"/>
-      <c r="Q988" s="2"/>
-      <c r="R988" s="2"/>
-      <c r="S988" s="2"/>
-      <c r="T988" s="2"/>
-      <c r="U988" s="2"/>
-      <c r="V988" s="2"/>
-      <c r="W988" s="2"/>
-      <c r="X988" s="2"/>
-      <c r="Y988" s="2"/>
-      <c r="Z988" s="2"/>
-    </row>
-    <row r="989" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A989" s="2"/>
-      <c r="B989" s="2"/>
-      <c r="C989" s="2"/>
-      <c r="D989" s="2"/>
-      <c r="E989" s="2"/>
-      <c r="F989" s="2"/>
-      <c r="G989" s="2"/>
-      <c r="H989" s="2"/>
-      <c r="I989" s="2"/>
-      <c r="J989" s="2"/>
-      <c r="K989" s="2"/>
-      <c r="L989" s="2"/>
-      <c r="M989" s="2"/>
-      <c r="N989" s="2"/>
-      <c r="O989" s="2"/>
-      <c r="P989" s="2"/>
-      <c r="Q989" s="2"/>
-      <c r="R989" s="2"/>
-      <c r="S989" s="2"/>
-      <c r="T989" s="2"/>
-      <c r="U989" s="2"/>
-      <c r="V989" s="2"/>
-      <c r="W989" s="2"/>
-      <c r="X989" s="2"/>
-      <c r="Y989" s="2"/>
-      <c r="Z989" s="2"/>
-    </row>
-    <row r="990" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A990" s="2"/>
-      <c r="B990" s="2"/>
-      <c r="C990" s="2"/>
-      <c r="D990" s="2"/>
-      <c r="E990" s="2"/>
-      <c r="F990" s="2"/>
-      <c r="G990" s="2"/>
-      <c r="H990" s="2"/>
-      <c r="I990" s="2"/>
-      <c r="J990" s="2"/>
-      <c r="K990" s="2"/>
-      <c r="L990" s="2"/>
-      <c r="M990" s="2"/>
-      <c r="N990" s="2"/>
-      <c r="O990" s="2"/>
-      <c r="P990" s="2"/>
-      <c r="Q990" s="2"/>
-      <c r="R990" s="2"/>
-      <c r="S990" s="2"/>
-      <c r="T990" s="2"/>
-      <c r="U990" s="2"/>
-      <c r="V990" s="2"/>
-      <c r="W990" s="2"/>
-      <c r="X990" s="2"/>
-      <c r="Y990" s="2"/>
-      <c r="Z990" s="2"/>
-    </row>
-    <row r="991" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A991" s="2"/>
-      <c r="B991" s="2"/>
-      <c r="C991" s="2"/>
-      <c r="D991" s="2"/>
-      <c r="E991" s="2"/>
-      <c r="F991" s="2"/>
-      <c r="G991" s="2"/>
-      <c r="H991" s="2"/>
-      <c r="I991" s="2"/>
-      <c r="J991" s="2"/>
-      <c r="K991" s="2"/>
-      <c r="L991" s="2"/>
-      <c r="M991" s="2"/>
-      <c r="N991" s="2"/>
-      <c r="O991" s="2"/>
-      <c r="P991" s="2"/>
-      <c r="Q991" s="2"/>
-      <c r="R991" s="2"/>
-      <c r="S991" s="2"/>
-      <c r="T991" s="2"/>
-      <c r="U991" s="2"/>
-      <c r="V991" s="2"/>
-      <c r="W991" s="2"/>
-      <c r="X991" s="2"/>
-      <c r="Y991" s="2"/>
-      <c r="Z991" s="2"/>
-    </row>
-    <row r="992" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A992" s="2"/>
-      <c r="B992" s="2"/>
-      <c r="C992" s="2"/>
-      <c r="D992" s="2"/>
-      <c r="E992" s="2"/>
-      <c r="F992" s="2"/>
-      <c r="G992" s="2"/>
-      <c r="H992" s="2"/>
-      <c r="I992" s="2"/>
-      <c r="J992" s="2"/>
-      <c r="K992" s="2"/>
-      <c r="L992" s="2"/>
-      <c r="M992" s="2"/>
-      <c r="N992" s="2"/>
-      <c r="O992" s="2"/>
-      <c r="P992" s="2"/>
-      <c r="Q992" s="2"/>
-      <c r="R992" s="2"/>
-      <c r="S992" s="2"/>
-      <c r="T992" s="2"/>
-      <c r="U992" s="2"/>
-      <c r="V992" s="2"/>
-      <c r="W992" s="2"/>
-      <c r="X992" s="2"/>
-      <c r="Y992" s="2"/>
-      <c r="Z992" s="2"/>
-    </row>
-    <row r="993" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A993" s="2"/>
-      <c r="B993" s="2"/>
-      <c r="C993" s="2"/>
-      <c r="D993" s="2"/>
-      <c r="E993" s="2"/>
-      <c r="F993" s="2"/>
-      <c r="G993" s="2"/>
-      <c r="H993" s="2"/>
-      <c r="I993" s="2"/>
-      <c r="J993" s="2"/>
-      <c r="K993" s="2"/>
-      <c r="L993" s="2"/>
-      <c r="M993" s="2"/>
-      <c r="N993" s="2"/>
-      <c r="O993" s="2"/>
-      <c r="P993" s="2"/>
-      <c r="Q993" s="2"/>
-      <c r="R993" s="2"/>
-      <c r="S993" s="2"/>
-      <c r="T993" s="2"/>
-      <c r="U993" s="2"/>
-      <c r="V993" s="2"/>
-      <c r="W993" s="2"/>
-      <c r="X993" s="2"/>
-      <c r="Y993" s="2"/>
-      <c r="Z993" s="2"/>
-    </row>
-    <row r="994" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A994" s="2"/>
-      <c r="B994" s="2"/>
-      <c r="C994" s="2"/>
-      <c r="D994" s="2"/>
-      <c r="E994" s="2"/>
-      <c r="F994" s="2"/>
-      <c r="G994" s="2"/>
-      <c r="H994" s="2"/>
-      <c r="I994" s="2"/>
-      <c r="J994" s="2"/>
-      <c r="K994" s="2"/>
-      <c r="L994" s="2"/>
-      <c r="M994" s="2"/>
-      <c r="N994" s="2"/>
-      <c r="O994" s="2"/>
-      <c r="P994" s="2"/>
-      <c r="Q994" s="2"/>
-      <c r="R994" s="2"/>
-      <c r="S994" s="2"/>
-      <c r="T994" s="2"/>
-      <c r="U994" s="2"/>
-      <c r="V994" s="2"/>
-      <c r="W994" s="2"/>
-      <c r="X994" s="2"/>
-      <c r="Y994" s="2"/>
-      <c r="Z994" s="2"/>
-    </row>
-    <row r="995" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A995" s="2"/>
-      <c r="B995" s="2"/>
-      <c r="C995" s="2"/>
-      <c r="D995" s="2"/>
-      <c r="E995" s="2"/>
-      <c r="F995" s="2"/>
-      <c r="G995" s="2"/>
-      <c r="H995" s="2"/>
-      <c r="I995" s="2"/>
-      <c r="J995" s="2"/>
-      <c r="K995" s="2"/>
-      <c r="L995" s="2"/>
-      <c r="M995" s="2"/>
-      <c r="N995" s="2"/>
-      <c r="O995" s="2"/>
-      <c r="P995" s="2"/>
-      <c r="Q995" s="2"/>
-      <c r="R995" s="2"/>
-      <c r="S995" s="2"/>
-      <c r="T995" s="2"/>
-      <c r="U995" s="2"/>
-      <c r="V995" s="2"/>
-      <c r="W995" s="2"/>
-      <c r="X995" s="2"/>
-      <c r="Y995" s="2"/>
-      <c r="Z995" s="2"/>
-    </row>
-    <row r="996" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A996" s="2"/>
-      <c r="B996" s="2"/>
-      <c r="C996" s="2"/>
-      <c r="D996" s="2"/>
-      <c r="E996" s="2"/>
-      <c r="F996" s="2"/>
-      <c r="G996" s="2"/>
-      <c r="H996" s="2"/>
-      <c r="I996" s="2"/>
-      <c r="J996" s="2"/>
-      <c r="K996" s="2"/>
-      <c r="L996" s="2"/>
-      <c r="M996" s="2"/>
-      <c r="N996" s="2"/>
-      <c r="O996" s="2"/>
-      <c r="P996" s="2"/>
-      <c r="Q996" s="2"/>
-      <c r="R996" s="2"/>
-      <c r="S996" s="2"/>
-      <c r="T996" s="2"/>
-      <c r="U996" s="2"/>
-      <c r="V996" s="2"/>
-      <c r="W996" s="2"/>
-      <c r="X996" s="2"/>
-      <c r="Y996" s="2"/>
-      <c r="Z996" s="2"/>
-    </row>
-    <row r="997" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
-      <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="2"/>
-      <c r="F997" s="2"/>
-      <c r="G997" s="2"/>
-      <c r="H997" s="2"/>
-      <c r="I997" s="2"/>
-      <c r="J997" s="2"/>
-      <c r="K997" s="2"/>
-      <c r="L997" s="2"/>
-      <c r="M997" s="2"/>
-      <c r="N997" s="2"/>
-      <c r="O997" s="2"/>
-      <c r="P997" s="2"/>
-      <c r="Q997" s="2"/>
-      <c r="R997" s="2"/>
-      <c r="S997" s="2"/>
-      <c r="T997" s="2"/>
-      <c r="U997" s="2"/>
-      <c r="V997" s="2"/>
-      <c r="W997" s="2"/>
-      <c r="X997" s="2"/>
-      <c r="Y997" s="2"/>
-      <c r="Z997" s="2"/>
-    </row>
-    <row r="998" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="2"/>
-      <c r="G998" s="2"/>
-      <c r="H998" s="2"/>
-      <c r="I998" s="2"/>
-      <c r="J998" s="2"/>
-      <c r="K998" s="2"/>
-      <c r="L998" s="2"/>
-      <c r="M998" s="2"/>
-      <c r="N998" s="2"/>
-      <c r="O998" s="2"/>
-      <c r="P998" s="2"/>
-      <c r="Q998" s="2"/>
-      <c r="R998" s="2"/>
-      <c r="S998" s="2"/>
-      <c r="T998" s="2"/>
-      <c r="U998" s="2"/>
-      <c r="V998" s="2"/>
-      <c r="W998" s="2"/>
-      <c r="X998" s="2"/>
-      <c r="Y998" s="2"/>
-      <c r="Z998" s="2"/>
-    </row>
-    <row r="999" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-      <c r="Y999" s="2"/>
-      <c r="Z999" s="2"/>
-    </row>
-    <row r="1000" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-    </row>
-    <row r="1001" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="2"/>
-      <c r="F1001" s="2"/>
-      <c r="G1001" s="2"/>
-      <c r="H1001" s="2"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="2"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="2"/>
-      <c r="M1001" s="2"/>
-      <c r="N1001" s="2"/>
-      <c r="O1001" s="2"/>
-      <c r="P1001" s="2"/>
-      <c r="Q1001" s="2"/>
-      <c r="R1001" s="2"/>
-      <c r="S1001" s="2"/>
-      <c r="T1001" s="2"/>
-      <c r="U1001" s="2"/>
-      <c r="V1001" s="2"/>
-      <c r="W1001" s="2"/>
-      <c r="X1001" s="2"/>
-      <c r="Y1001" s="2"/>
-      <c r="Z1001" s="2"/>
-    </row>
-    <row r="1002" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1002" s="2"/>
-      <c r="B1002" s="2"/>
-      <c r="C1002" s="2"/>
-      <c r="D1002" s="2"/>
-      <c r="E1002" s="2"/>
-      <c r="F1002" s="2"/>
-      <c r="G1002" s="2"/>
-      <c r="H1002" s="2"/>
-      <c r="I1002" s="2"/>
-      <c r="J1002" s="2"/>
-      <c r="K1002" s="2"/>
-      <c r="L1002" s="2"/>
-      <c r="M1002" s="2"/>
-      <c r="N1002" s="2"/>
-      <c r="O1002" s="2"/>
-      <c r="P1002" s="2"/>
-      <c r="Q1002" s="2"/>
-      <c r="R1002" s="2"/>
-      <c r="S1002" s="2"/>
-      <c r="T1002" s="2"/>
-      <c r="U1002" s="2"/>
-      <c r="V1002" s="2"/>
-      <c r="W1002" s="2"/>
-      <c r="X1002" s="2"/>
-      <c r="Y1002" s="2"/>
-      <c r="Z1002" s="2"/>
-    </row>
-    <row r="1003" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1003" s="2"/>
-      <c r="B1003" s="2"/>
-      <c r="C1003" s="2"/>
-      <c r="D1003" s="2"/>
-      <c r="E1003" s="2"/>
-      <c r="F1003" s="2"/>
-      <c r="G1003" s="2"/>
-      <c r="H1003" s="2"/>
-      <c r="I1003" s="2"/>
-      <c r="J1003" s="2"/>
-      <c r="K1003" s="2"/>
-      <c r="L1003" s="2"/>
-      <c r="M1003" s="2"/>
-      <c r="N1003" s="2"/>
-      <c r="O1003" s="2"/>
-      <c r="P1003" s="2"/>
-      <c r="Q1003" s="2"/>
-      <c r="R1003" s="2"/>
-      <c r="S1003" s="2"/>
-      <c r="T1003" s="2"/>
-      <c r="U1003" s="2"/>
-      <c r="V1003" s="2"/>
-      <c r="W1003" s="2"/>
-      <c r="X1003" s="2"/>
-      <c r="Y1003" s="2"/>
-      <c r="Z1003" s="2"/>
-    </row>
-    <row r="1004" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1004" s="2"/>
-      <c r="B1004" s="2"/>
-      <c r="C1004" s="2"/>
-      <c r="D1004" s="2"/>
-      <c r="E1004" s="2"/>
-      <c r="F1004" s="2"/>
-      <c r="G1004" s="2"/>
-      <c r="H1004" s="2"/>
-      <c r="I1004" s="2"/>
-      <c r="J1004" s="2"/>
-      <c r="K1004" s="2"/>
-      <c r="L1004" s="2"/>
-      <c r="M1004" s="2"/>
-      <c r="N1004" s="2"/>
-      <c r="O1004" s="2"/>
-      <c r="P1004" s="2"/>
-      <c r="Q1004" s="2"/>
-      <c r="R1004" s="2"/>
-      <c r="S1004" s="2"/>
-      <c r="T1004" s="2"/>
-      <c r="U1004" s="2"/>
-      <c r="V1004" s="2"/>
-      <c r="W1004" s="2"/>
-      <c r="X1004" s="2"/>
-      <c r="Y1004" s="2"/>
-      <c r="Z1004" s="2"/>
-    </row>
-    <row r="1005" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1005" s="2"/>
-      <c r="B1005" s="2"/>
-      <c r="C1005" s="2"/>
-      <c r="D1005" s="2"/>
-      <c r="E1005" s="2"/>
-      <c r="F1005" s="2"/>
-      <c r="G1005" s="2"/>
-      <c r="H1005" s="2"/>
-      <c r="I1005" s="2"/>
-      <c r="J1005" s="2"/>
-      <c r="K1005" s="2"/>
-      <c r="L1005" s="2"/>
-      <c r="M1005" s="2"/>
-      <c r="N1005" s="2"/>
-      <c r="O1005" s="2"/>
-      <c r="P1005" s="2"/>
-      <c r="Q1005" s="2"/>
-      <c r="R1005" s="2"/>
-      <c r="S1005" s="2"/>
-      <c r="T1005" s="2"/>
-      <c r="U1005" s="2"/>
-      <c r="V1005" s="2"/>
-      <c r="W1005" s="2"/>
-      <c r="X1005" s="2"/>
-      <c r="Y1005" s="2"/>
-      <c r="Z1005" s="2"/>
-    </row>
-    <row r="1006" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1006" s="2"/>
-      <c r="B1006" s="2"/>
-      <c r="C1006" s="2"/>
-      <c r="D1006" s="2"/>
-      <c r="E1006" s="2"/>
-      <c r="F1006" s="2"/>
-      <c r="G1006" s="2"/>
-      <c r="H1006" s="2"/>
-      <c r="I1006" s="2"/>
-      <c r="J1006" s="2"/>
-      <c r="K1006" s="2"/>
-      <c r="L1006" s="2"/>
-      <c r="M1006" s="2"/>
-      <c r="N1006" s="2"/>
-      <c r="O1006" s="2"/>
-      <c r="P1006" s="2"/>
-      <c r="Q1006" s="2"/>
-      <c r="R1006" s="2"/>
-      <c r="S1006" s="2"/>
-      <c r="T1006" s="2"/>
-      <c r="U1006" s="2"/>
-      <c r="V1006" s="2"/>
-      <c r="W1006" s="2"/>
-      <c r="X1006" s="2"/>
-      <c r="Y1006" s="2"/>
-      <c r="Z1006" s="2"/>
-    </row>
-    <row r="1007" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1007" s="2"/>
-      <c r="B1007" s="2"/>
-      <c r="C1007" s="2"/>
-      <c r="D1007" s="2"/>
-      <c r="E1007" s="2"/>
-      <c r="F1007" s="2"/>
-      <c r="G1007" s="2"/>
-      <c r="H1007" s="2"/>
-      <c r="I1007" s="2"/>
-      <c r="J1007" s="2"/>
-      <c r="K1007" s="2"/>
-      <c r="L1007" s="2"/>
-      <c r="M1007" s="2"/>
-      <c r="N1007" s="2"/>
-      <c r="O1007" s="2"/>
-      <c r="P1007" s="2"/>
-      <c r="Q1007" s="2"/>
-      <c r="R1007" s="2"/>
-      <c r="S1007" s="2"/>
-      <c r="T1007" s="2"/>
-      <c r="U1007" s="2"/>
-      <c r="V1007" s="2"/>
-      <c r="W1007" s="2"/>
-      <c r="X1007" s="2"/>
-      <c r="Y1007" s="2"/>
-      <c r="Z1007" s="2"/>
-    </row>
-    <row r="1008" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1008" s="2"/>
-      <c r="B1008" s="2"/>
-      <c r="C1008" s="2"/>
-      <c r="D1008" s="2"/>
-      <c r="E1008" s="2"/>
-      <c r="F1008" s="2"/>
-      <c r="G1008" s="2"/>
-      <c r="H1008" s="2"/>
-      <c r="I1008" s="2"/>
-      <c r="J1008" s="2"/>
-      <c r="K1008" s="2"/>
-      <c r="L1008" s="2"/>
-      <c r="M1008" s="2"/>
-      <c r="N1008" s="2"/>
-      <c r="O1008" s="2"/>
-      <c r="P1008" s="2"/>
-      <c r="Q1008" s="2"/>
-      <c r="R1008" s="2"/>
-      <c r="S1008" s="2"/>
-      <c r="T1008" s="2"/>
-      <c r="U1008" s="2"/>
-      <c r="V1008" s="2"/>
-      <c r="W1008" s="2"/>
-      <c r="X1008" s="2"/>
-      <c r="Y1008" s="2"/>
-      <c r="Z1008" s="2"/>
-    </row>
-    <row r="1009" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1009" s="2"/>
-      <c r="B1009" s="2"/>
-      <c r="C1009" s="2"/>
-      <c r="D1009" s="2"/>
-      <c r="E1009" s="2"/>
-      <c r="F1009" s="2"/>
-      <c r="G1009" s="2"/>
-      <c r="H1009" s="2"/>
-      <c r="I1009" s="2"/>
-      <c r="J1009" s="2"/>
-      <c r="K1009" s="2"/>
-      <c r="L1009" s="2"/>
-      <c r="M1009" s="2"/>
-      <c r="N1009" s="2"/>
-      <c r="O1009" s="2"/>
-      <c r="P1009" s="2"/>
-      <c r="Q1009" s="2"/>
-      <c r="R1009" s="2"/>
-      <c r="S1009" s="2"/>
-      <c r="T1009" s="2"/>
-      <c r="U1009" s="2"/>
-      <c r="V1009" s="2"/>
-      <c r="W1009" s="2"/>
-      <c r="X1009" s="2"/>
-      <c r="Y1009" s="2"/>
-      <c r="Z1009" s="2"/>
-    </row>
-    <row r="1010" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1010" s="2"/>
-      <c r="B1010" s="2"/>
-      <c r="C1010" s="2"/>
-      <c r="D1010" s="2"/>
-      <c r="E1010" s="2"/>
-      <c r="F1010" s="2"/>
-      <c r="G1010" s="2"/>
-      <c r="H1010" s="2"/>
-      <c r="I1010" s="2"/>
-      <c r="J1010" s="2"/>
-      <c r="K1010" s="2"/>
-      <c r="L1010" s="2"/>
-      <c r="M1010" s="2"/>
-      <c r="N1010" s="2"/>
-      <c r="O1010" s="2"/>
-      <c r="P1010" s="2"/>
-      <c r="Q1010" s="2"/>
-      <c r="R1010" s="2"/>
-      <c r="S1010" s="2"/>
-      <c r="T1010" s="2"/>
-      <c r="U1010" s="2"/>
-      <c r="V1010" s="2"/>
-      <c r="W1010" s="2"/>
-      <c r="X1010" s="2"/>
-      <c r="Y1010" s="2"/>
-      <c r="Z1010" s="2"/>
-    </row>
-    <row r="1011" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1011" s="2"/>
-      <c r="B1011" s="2"/>
-      <c r="C1011" s="2"/>
-      <c r="D1011" s="2"/>
-      <c r="E1011" s="2"/>
-      <c r="F1011" s="2"/>
-      <c r="G1011" s="2"/>
-      <c r="H1011" s="2"/>
-      <c r="I1011" s="2"/>
-      <c r="J1011" s="2"/>
-      <c r="K1011" s="2"/>
-      <c r="L1011" s="2"/>
-      <c r="M1011" s="2"/>
-      <c r="N1011" s="2"/>
-      <c r="O1011" s="2"/>
-      <c r="P1011" s="2"/>
-      <c r="Q1011" s="2"/>
-      <c r="R1011" s="2"/>
-      <c r="S1011" s="2"/>
-      <c r="T1011" s="2"/>
-      <c r="U1011" s="2"/>
-      <c r="V1011" s="2"/>
-      <c r="W1011" s="2"/>
-      <c r="X1011" s="2"/>
-      <c r="Y1011" s="2"/>
-      <c r="Z1011" s="2"/>
-    </row>
-    <row r="1012" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1012" s="2"/>
-      <c r="B1012" s="2"/>
-      <c r="C1012" s="2"/>
-      <c r="D1012" s="2"/>
-      <c r="E1012" s="2"/>
-      <c r="F1012" s="2"/>
-      <c r="G1012" s="2"/>
-      <c r="H1012" s="2"/>
-      <c r="I1012" s="2"/>
-      <c r="J1012" s="2"/>
-      <c r="K1012" s="2"/>
-      <c r="L1012" s="2"/>
-      <c r="M1012" s="2"/>
-      <c r="N1012" s="2"/>
-      <c r="O1012" s="2"/>
-      <c r="P1012" s="2"/>
-      <c r="Q1012" s="2"/>
-      <c r="R1012" s="2"/>
-      <c r="S1012" s="2"/>
-      <c r="T1012" s="2"/>
-      <c r="U1012" s="2"/>
-      <c r="V1012" s="2"/>
-      <c r="W1012" s="2"/>
-      <c r="X1012" s="2"/>
-      <c r="Y1012" s="2"/>
-      <c r="Z1012" s="2"/>
-    </row>
-    <row r="1013" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1013" s="2"/>
-      <c r="B1013" s="2"/>
-      <c r="C1013" s="2"/>
-      <c r="D1013" s="2"/>
-      <c r="E1013" s="2"/>
-      <c r="F1013" s="2"/>
-      <c r="G1013" s="2"/>
-      <c r="H1013" s="2"/>
-      <c r="I1013" s="2"/>
-      <c r="J1013" s="2"/>
-      <c r="K1013" s="2"/>
-      <c r="L1013" s="2"/>
-      <c r="M1013" s="2"/>
-      <c r="N1013" s="2"/>
-      <c r="O1013" s="2"/>
-      <c r="P1013" s="2"/>
-      <c r="Q1013" s="2"/>
-      <c r="R1013" s="2"/>
-      <c r="S1013" s="2"/>
-      <c r="T1013" s="2"/>
-      <c r="U1013" s="2"/>
-      <c r="V1013" s="2"/>
-      <c r="W1013" s="2"/>
-      <c r="X1013" s="2"/>
-      <c r="Y1013" s="2"/>
-      <c r="Z1013" s="2"/>
-    </row>
-    <row r="1014" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1014" s="2"/>
-      <c r="B1014" s="2"/>
-      <c r="C1014" s="2"/>
-      <c r="D1014" s="2"/>
-      <c r="E1014" s="2"/>
-      <c r="F1014" s="2"/>
-      <c r="G1014" s="2"/>
-      <c r="H1014" s="2"/>
-      <c r="I1014" s="2"/>
-      <c r="J1014" s="2"/>
-      <c r="K1014" s="2"/>
-      <c r="L1014" s="2"/>
-      <c r="M1014" s="2"/>
-      <c r="N1014" s="2"/>
-      <c r="O1014" s="2"/>
-      <c r="P1014" s="2"/>
-      <c r="Q1014" s="2"/>
-      <c r="R1014" s="2"/>
-      <c r="S1014" s="2"/>
-      <c r="T1014" s="2"/>
-      <c r="U1014" s="2"/>
-      <c r="V1014" s="2"/>
-      <c r="W1014" s="2"/>
-      <c r="X1014" s="2"/>
-      <c r="Y1014" s="2"/>
-      <c r="Z1014" s="2"/>
-    </row>
-    <row r="1015" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1015" s="2"/>
-      <c r="B1015" s="2"/>
-      <c r="C1015" s="2"/>
-      <c r="D1015" s="2"/>
-      <c r="E1015" s="2"/>
-      <c r="F1015" s="2"/>
-      <c r="G1015" s="2"/>
-      <c r="H1015" s="2"/>
-      <c r="I1015" s="2"/>
-      <c r="J1015" s="2"/>
-      <c r="K1015" s="2"/>
-      <c r="L1015" s="2"/>
-      <c r="M1015" s="2"/>
-      <c r="N1015" s="2"/>
-      <c r="O1015" s="2"/>
-      <c r="P1015" s="2"/>
-      <c r="Q1015" s="2"/>
-      <c r="R1015" s="2"/>
-      <c r="S1015" s="2"/>
-      <c r="T1015" s="2"/>
-      <c r="U1015" s="2"/>
-      <c r="V1015" s="2"/>
-      <c r="W1015" s="2"/>
-      <c r="X1015" s="2"/>
-      <c r="Y1015" s="2"/>
-      <c r="Z1015" s="2"/>
-    </row>
-    <row r="1016" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1016" s="2"/>
-      <c r="B1016" s="2"/>
-      <c r="C1016" s="2"/>
-      <c r="D1016" s="2"/>
-      <c r="E1016" s="2"/>
-      <c r="F1016" s="2"/>
-      <c r="G1016" s="2"/>
-      <c r="H1016" s="2"/>
-      <c r="I1016" s="2"/>
-      <c r="J1016" s="2"/>
-      <c r="K1016" s="2"/>
-      <c r="L1016" s="2"/>
-      <c r="M1016" s="2"/>
-      <c r="N1016" s="2"/>
-      <c r="O1016" s="2"/>
-      <c r="P1016" s="2"/>
-      <c r="Q1016" s="2"/>
-      <c r="R1016" s="2"/>
-      <c r="S1016" s="2"/>
-      <c r="T1016" s="2"/>
-      <c r="U1016" s="2"/>
-      <c r="V1016" s="2"/>
-      <c r="W1016" s="2"/>
-      <c r="X1016" s="2"/>
-      <c r="Y1016" s="2"/>
-      <c r="Z1016" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:J74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:J76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="104">
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="D69:D74"/>
-    <mergeCell ref="E69:E74"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A14:A18"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A3:A4"/>
@@ -31096,6 +26078,94 @@
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="E10:E11"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A62:A63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
